--- a/VA_result_COM.xlsx
+++ b/VA_result_COM.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t xml:space="preserve">time</t>
   </si>
@@ -392,6 +392,54 @@
     <t xml:space="preserve">2025-10-01</t>
   </si>
   <si>
+    <t xml:space="preserve">2026-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-10-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">VA_CST</t>
   </si>
   <si>
@@ -458,76 +506,76 @@
     <t xml:space="preserve">var_controle</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31322574615479e-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.69332960201427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.72365940874442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.8945684377104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.81574795302004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.65344338538125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.65194556675851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.51443171780556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.63459572615102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.66607181122527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.59752467926592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.48004360171035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.35751722427085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.49162842100486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.52062035305426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.51766139641404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.45922463433817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.42527545941994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.45508019626141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.39877135958523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.70834453683347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.62605924252421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.07295486144722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.04352630767971</t>
+    <t xml:space="preserve">4.65661287307739e-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.9663117295131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28.9256851864047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-43.071957862936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28.0939065259881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96062382264063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46843535499647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3706544148736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87581155076623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00535996025428176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6832162681967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5198001298122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.061390680261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9397489088587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.321792006027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6715464498848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.9757239879109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.7909874026664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6352143525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8760720137507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-11.0500819394365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12314202729613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-80.3984799021855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-95.049513252452</t>
   </si>
   <si>
     <t xml:space="preserve">valaj_brut</t>
@@ -568,7 +616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
+        <fgColor rgb="FFB8F0F6"/>
       </patternFill>
     </fill>
   </fills>
@@ -1151,10 +1199,10 @@
         <v>31</v>
       </c>
       <c r="B5" t="n">
-        <v>161.63470314677</v>
+        <v>108.538943373282</v>
       </c>
       <c r="C5" t="n">
-        <v>70.6026528431875</v>
+        <v>47.4102231127425</v>
       </c>
     </row>
     <row r="6">
@@ -1195,10 +1243,10 @@
         <v>34</v>
       </c>
       <c r="B9" t="n">
-        <v>153.689170968639</v>
+        <v>108.416486075593</v>
       </c>
       <c r="C9" t="n">
-        <v>67.1320141801674</v>
+        <v>47.3567332995492</v>
       </c>
     </row>
     <row r="10">
@@ -1239,10 +1287,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="n">
-        <v>160.61615168917</v>
+        <v>109.046334857827</v>
       </c>
       <c r="C13" t="n">
-        <v>70.1577456941421</v>
+        <v>47.6318536422108</v>
       </c>
     </row>
     <row r="14">
@@ -1789,10 +1837,10 @@
         <v>74</v>
       </c>
       <c r="B63" t="n">
-        <v>104.777283349569</v>
+        <v>126.90819852534</v>
       </c>
       <c r="C63" t="n">
-        <v>45.7671157131689</v>
+        <v>55.4339836000618</v>
       </c>
     </row>
     <row r="64">
@@ -2130,10 +2178,10 @@
         <v>25</v>
       </c>
       <c r="B94" t="n">
-        <v>318.090953583906</v>
+        <v>260.801973399102</v>
       </c>
       <c r="C94" t="n">
-        <v>138.943337855178</v>
+        <v>113.919293507132</v>
       </c>
     </row>
     <row r="95">
@@ -2174,10 +2222,10 @@
         <v>26</v>
       </c>
       <c r="B98" t="n">
-        <v>350.09886977583</v>
+        <v>276.484442494974</v>
       </c>
       <c r="C98" t="n">
-        <v>152.924517336667</v>
+        <v>120.769455630389</v>
       </c>
     </row>
     <row r="99">
@@ -2218,10 +2266,10 @@
         <v>104</v>
       </c>
       <c r="B102" t="n">
-        <v>358.387698730166</v>
+        <v>296.684236852427</v>
       </c>
       <c r="C102" t="n">
-        <v>156.545109336692</v>
+        <v>129.592802602036</v>
       </c>
     </row>
     <row r="103">
@@ -2229,10 +2277,10 @@
         <v>105</v>
       </c>
       <c r="B103" t="n">
-        <v>304.019510196836</v>
+        <v>293.575528181582</v>
       </c>
       <c r="C103" t="n">
-        <v>132.796877886382</v>
+        <v>128.234906835809</v>
       </c>
     </row>
     <row r="104">
@@ -2240,10 +2288,10 @@
         <v>106</v>
       </c>
       <c r="B104" t="n">
-        <v>338.375944421825</v>
+        <v>317.336193520913</v>
       </c>
       <c r="C104" t="n">
-        <v>147.803898973395</v>
+        <v>138.613655790188</v>
       </c>
     </row>
     <row r="105">
@@ -2251,10 +2299,10 @@
         <v>107</v>
       </c>
       <c r="B105" t="n">
-        <v>327.476149260493</v>
+        <v>309.710200649122</v>
       </c>
       <c r="C105" t="n">
-        <v>143.042827007688</v>
+        <v>135.282593111014</v>
       </c>
     </row>
     <row r="106">
@@ -2262,10 +2310,10 @@
         <v>108</v>
       </c>
       <c r="B106" t="n">
-        <v>375.372634321146</v>
+        <v>305.750851748363</v>
       </c>
       <c r="C106" t="n">
-        <v>163.964193776776</v>
+        <v>133.553134458366</v>
       </c>
     </row>
     <row r="107">
@@ -2273,10 +2321,10 @@
         <v>109</v>
       </c>
       <c r="B107" t="n">
-        <v>320.541361600506</v>
+        <v>307.01856104444</v>
       </c>
       <c r="C107" t="n">
-        <v>140.013685392879</v>
+        <v>134.106874698516</v>
       </c>
     </row>
     <row r="108">
@@ -2284,10 +2332,10 @@
         <v>110</v>
       </c>
       <c r="B108" t="n">
-        <v>355.532987360861</v>
+        <v>322.503303385003</v>
       </c>
       <c r="C108" t="n">
-        <v>155.298160557434</v>
+        <v>140.870669023329</v>
       </c>
     </row>
     <row r="109">
@@ -2295,10 +2343,10 @@
         <v>111</v>
       </c>
       <c r="B109" t="n">
-        <v>344.062393976303</v>
+        <v>320.434048506297</v>
       </c>
       <c r="C109" t="n">
-        <v>150.287761757741</v>
+        <v>139.966810625341</v>
       </c>
     </row>
     <row r="110">
@@ -2306,10 +2354,10 @@
         <v>112</v>
       </c>
       <c r="B110" t="n">
-        <v>386.551539565296</v>
+        <v>319.516687248752</v>
       </c>
       <c r="C110" t="n">
-        <v>168.847182087788</v>
+        <v>139.566103740388</v>
       </c>
     </row>
     <row r="111">
@@ -2317,10 +2365,10 @@
         <v>113</v>
       </c>
       <c r="B111" t="n">
-        <v>339.07947521407</v>
+        <v>320.755544448826</v>
       </c>
       <c r="C111" t="n">
-        <v>148.111203898156</v>
+        <v>140.107241275313</v>
       </c>
     </row>
     <row r="112">
@@ -2328,10 +2376,10 @@
         <v>114</v>
       </c>
       <c r="B112" t="n">
-        <v>369.234632214214</v>
+        <v>329.288905906855</v>
       </c>
       <c r="C112" t="n">
-        <v>161.283091120789</v>
+        <v>143.834646002624</v>
       </c>
     </row>
     <row r="113">
@@ -2339,10 +2387,10 @@
         <v>115</v>
       </c>
       <c r="B113" t="n">
-        <v>359.498975668398</v>
+        <v>328.368924494668</v>
       </c>
       <c r="C113" t="n">
-        <v>157.030519328205</v>
+        <v>143.432794624161</v>
       </c>
     </row>
     <row r="114">
@@ -2350,10 +2398,10 @@
         <v>116</v>
       </c>
       <c r="B114" t="n">
-        <v>398.662902565859</v>
+        <v>328.263420606154</v>
       </c>
       <c r="C114" t="n">
-        <v>174.137471491854</v>
+        <v>143.38671012455</v>
       </c>
     </row>
     <row r="115">
@@ -2361,10 +2409,10 @@
         <v>117</v>
       </c>
       <c r="B115" t="n">
-        <v>354.362705623814</v>
+        <v>329.603650361809</v>
       </c>
       <c r="C115" t="n">
-        <v>154.786977045472</v>
+        <v>143.972127577154</v>
       </c>
     </row>
     <row r="116">
@@ -2372,10 +2420,10 @@
         <v>118</v>
       </c>
       <c r="B116" t="n">
-        <v>382.569728174603</v>
+        <v>335.124529084311</v>
       </c>
       <c r="C116" t="n">
-        <v>167.107911734139</v>
+        <v>146.38366839262</v>
       </c>
     </row>
     <row r="117">
@@ -2383,10 +2431,10 @@
         <v>119</v>
       </c>
       <c r="B117" t="n">
-        <v>373.391505637522</v>
+        <v>335.735411990974</v>
       </c>
       <c r="C117" t="n">
-        <v>163.098829235842</v>
+        <v>146.650504368727</v>
       </c>
     </row>
     <row r="118">
@@ -2394,10 +2442,10 @@
         <v>120</v>
       </c>
       <c r="B118" t="n">
-        <v>408.80644121329</v>
+        <v>336.834368566455</v>
       </c>
       <c r="C118" t="n">
-        <v>178.568207737125</v>
+        <v>147.13053277895</v>
       </c>
     </row>
     <row r="119">
@@ -2405,10 +2453,10 @@
         <v>121</v>
       </c>
       <c r="B119" t="n">
-        <v>368.989946012968</v>
+        <v>338.665976978211</v>
       </c>
       <c r="C119" t="n">
-        <v>161.176211257828</v>
+        <v>147.930586296681</v>
       </c>
     </row>
     <row r="120">
@@ -2416,10 +2464,10 @@
         <v>122</v>
       </c>
       <c r="B120" t="n">
-        <v>394.312616922962</v>
+        <v>342.647939190092</v>
       </c>
       <c r="C120" t="n">
-        <v>172.237250183963</v>
+        <v>149.669922529599</v>
       </c>
     </row>
     <row r="121">
@@ -2427,10 +2475,186 @@
         <v>123</v>
       </c>
       <c r="B121" t="n">
-        <v>386.104455148328</v>
+        <v>343.892167170794</v>
       </c>
       <c r="C121" t="n">
-        <v>168.651893914715</v>
+        <v>150.21340604192</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="n">
+        <v>345.324047504695</v>
+      </c>
+      <c r="C122" t="n">
+        <v>150.838856815543</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="n">
+        <v>347.115458133129</v>
+      </c>
+      <c r="C123" t="n">
+        <v>151.621351788693</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="n">
+        <v>350.065631851277</v>
+      </c>
+      <c r="C124" t="n">
+        <v>152.909998884857</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="n">
+        <v>351.574072057962</v>
+      </c>
+      <c r="C125" t="n">
+        <v>153.56889130198</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" t="n">
+        <v>353.219934350631</v>
+      </c>
+      <c r="C126" t="n">
+        <v>154.287810208717</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" t="n">
+        <v>355.089951704655</v>
+      </c>
+      <c r="C127" t="n">
+        <v>155.104640898454</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" t="n">
+        <v>357.600141332615</v>
+      </c>
+      <c r="C128" t="n">
+        <v>156.201101271277</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" t="n">
+        <v>359.33953537011</v>
+      </c>
+      <c r="C129" t="n">
+        <v>156.960875199746</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" t="n">
+        <v>361.145344732119</v>
+      </c>
+      <c r="C130" t="n">
+        <v>157.749659594464</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" t="n">
+        <v>363.058991392018</v>
+      </c>
+      <c r="C131" t="n">
+        <v>158.585547730879</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" t="n">
+        <v>365.304178331165</v>
+      </c>
+      <c r="C132" t="n">
+        <v>159.566253921731</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" t="n">
+        <v>367.127066401227</v>
+      </c>
+      <c r="C133" t="n">
+        <v>160.362498361056</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" t="n">
+        <v>368.98245812157</v>
+      </c>
+      <c r="C134" t="n">
+        <v>161.172940518398</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" t="n">
+        <v>370.897089223339</v>
+      </c>
+      <c r="C135" t="n">
+        <v>162.009258662765</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" t="n">
+        <v>372.993753092903</v>
+      </c>
+      <c r="C136" t="n">
+        <v>162.925089412163</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" t="n">
+        <v>374.868211852282</v>
+      </c>
+      <c r="C137" t="n">
+        <v>163.743860124645</v>
       </c>
     </row>
   </sheetData>
@@ -2452,19 +2676,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
@@ -2475,7 +2699,7 @@
         <v>2923643.00229707</v>
       </c>
       <c r="C2" t="n">
-        <v>52.5023567207793</v>
+        <v>46.704249288168</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -2489,16 +2713,16 @@
         <v>2779926.82291267</v>
       </c>
       <c r="C3" t="n">
-        <v>49.9214804817585</v>
+        <v>44.977660261604</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.91565417773262</v>
+        <v>-4.91565417773263</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.91573407408454</v>
+        <v>-3.69685639503778</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4">
@@ -2506,19 +2730,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>2905217.1132286</v>
+        <v>2905197.84024647</v>
       </c>
       <c r="C4" t="n">
-        <v>52.1715097496507</v>
+        <v>46.5400367366679</v>
       </c>
       <c r="D4" t="n">
-        <v>4.50696361081395</v>
+        <v>4.50627031982629</v>
       </c>
       <c r="E4" t="n">
-        <v>4.50713649951622</v>
+        <v>3.4736721874296</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5">
@@ -2526,19 +2750,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>3080471.89724867</v>
+        <v>3080444.6952229</v>
       </c>
       <c r="C5" t="n">
         <v>47.7626040897201</v>
       </c>
       <c r="D5" t="n">
-        <v>6.03241607045708</v>
+        <v>6.03218316318015</v>
       </c>
       <c r="E5" t="n">
-        <v>-8.45079178480185</v>
+        <v>2.62691531588117</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6">
@@ -2546,19 +2770,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>2818356.33450668</v>
+        <v>2818315.15711726</v>
       </c>
       <c r="C6" t="n">
         <v>43.9593371684665</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.50894185972282</v>
+        <v>-8.50947067844277</v>
       </c>
       <c r="E6" t="n">
         <v>-7.96285502798239</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7">
@@ -2566,19 +2790,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>2715366.88255576</v>
+        <v>2715340.60439719</v>
       </c>
       <c r="C7" t="n">
         <v>50.1887666417072</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.65423813482938</v>
+        <v>-3.65376286821659</v>
       </c>
       <c r="E7" t="n">
         <v>14.1708903602605</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8">
@@ -2586,19 +2810,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>2586651.85267696</v>
+        <v>2586655.46674416</v>
       </c>
       <c r="C8" t="n">
         <v>46.132918410694</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.74024452112541</v>
+        <v>-4.73918953094251</v>
       </c>
       <c r="E8" t="n">
         <v>-8.0811872903104</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
@@ -2606,19 +2830,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>2256411.21829773</v>
+        <v>2256415.33867865</v>
       </c>
       <c r="C9" t="n">
         <v>43.5881447703756</v>
       </c>
       <c r="D9" t="n">
-        <v>-12.7671079522147</v>
+        <v>-12.7670705399815</v>
       </c>
       <c r="E9" t="n">
         <v>-5.51617744549289</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
@@ -2626,19 +2850,19 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>2467732.24090156</v>
+        <v>2467762.1259877</v>
       </c>
       <c r="C10" t="n">
         <v>43.3246884267133</v>
       </c>
       <c r="D10" t="n">
-        <v>9.36535950939208</v>
+        <v>9.36648424987268</v>
       </c>
       <c r="E10" t="n">
         <v>-0.604422016698114</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11">
@@ -2646,19 +2870,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>2516883.18929477</v>
+        <v>2516890.69970205</v>
       </c>
       <c r="C11" t="n">
         <v>43.0559781841494</v>
       </c>
       <c r="D11" t="n">
-        <v>1.99174560264499</v>
+        <v>1.99081480329837</v>
       </c>
       <c r="E11" t="n">
         <v>-0.620224293172633</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
@@ -2666,19 +2890,19 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>2475907.6991578</v>
+        <v>2475909.35986965</v>
       </c>
       <c r="C12" t="n">
         <v>45.7680484563756</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.62802510308205</v>
+        <v>-1.62825266259073</v>
       </c>
       <c r="E12" t="n">
         <v>6.29894009288734</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
@@ -2686,19 +2910,19 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>2355798.09417986</v>
+        <v>2355812.3749208</v>
       </c>
       <c r="C13" t="n">
         <v>48.810230656605</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.85113419287809</v>
+        <v>-4.85062122610059</v>
       </c>
       <c r="E13" t="n">
         <v>6.64695634363583</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
@@ -2706,19 +2930,19 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>2359583.79123102</v>
+        <v>2359619.79107475</v>
       </c>
       <c r="C14" t="n">
         <v>56.1378860800599</v>
       </c>
       <c r="D14" t="n">
-        <v>0.160697007969945</v>
+        <v>0.161617970704153</v>
       </c>
       <c r="E14" t="n">
         <v>15.0125400451541</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -2726,19 +2950,19 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>2604230.15916951</v>
+        <v>2604288.57807741</v>
       </c>
       <c r="C15" t="n">
         <v>56.1270920213629</v>
       </c>
       <c r="D15" t="n">
-        <v>10.3682000549281</v>
+        <v>10.3689919845613</v>
       </c>
       <c r="E15" t="n">
         <v>-0.0192277612335312</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
@@ -2746,19 +2970,19 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>2760903.01873218</v>
+        <v>2760936.45010951</v>
       </c>
       <c r="C16" t="n">
         <v>59.4661010708746</v>
       </c>
       <c r="D16" t="n">
-        <v>6.01609112816046</v>
+        <v>6.01499670008709</v>
       </c>
       <c r="E16" t="n">
         <v>5.94901486832926</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
@@ -2766,19 +2990,19 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>2626294.56886823</v>
+        <v>2626322.41128058</v>
       </c>
       <c r="C17" t="n">
-        <v>55.3064521394452</v>
+        <v>57.7231691111684</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.87552257180587</v>
+        <v>-4.87566596556718</v>
       </c>
       <c r="E17" t="n">
-        <v>-6.99499186346808</v>
+        <v>-2.93096727096478</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
@@ -2786,19 +3010,19 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>3118308.21401166</v>
+        <v>3118344.4032195</v>
       </c>
       <c r="C18" t="n">
         <v>74.5833060933238</v>
       </c>
       <c r="D18" t="n">
-        <v>18.7341378600749</v>
+        <v>18.7342570670527</v>
       </c>
       <c r="E18" t="n">
-        <v>34.8546204071732</v>
+        <v>29.2086128356615</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19">
@@ -2806,19 +3030,19 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>3358016.8857403</v>
+        <v>3358055.32068892</v>
       </c>
       <c r="C19" t="n">
         <v>84.2971828382025</v>
       </c>
       <c r="D19" t="n">
-        <v>7.68713851477374</v>
+        <v>7.68712132059344</v>
       </c>
       <c r="E19" t="n">
         <v>13.0241970404531</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20">
@@ -2826,19 +3050,19 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>3729929.30707608</v>
+        <v>3729973.52333895</v>
       </c>
       <c r="C20" t="n">
         <v>94.5179385928135</v>
       </c>
       <c r="D20" t="n">
-        <v>11.0753588796737</v>
+        <v>11.075404278144</v>
       </c>
       <c r="E20" t="n">
         <v>12.1246706123363</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21">
@@ -2846,19 +3070,19 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>3797348.5449198</v>
+        <v>3797386.63521435</v>
       </c>
       <c r="C21" t="n">
         <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>1.80752052634934</v>
+        <v>1.80733486319926</v>
       </c>
       <c r="E21" t="n">
         <v>5.80002218499853</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22">
@@ -2866,19 +3090,19 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>4327180.60122864</v>
+        <v>4327228.87607201</v>
       </c>
       <c r="C22" t="n">
         <v>98.8517245076202</v>
       </c>
       <c r="D22" t="n">
-        <v>13.9526843543941</v>
+        <v>13.9528125986506</v>
       </c>
       <c r="E22" t="n">
         <v>-1.14827549237977</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23">
@@ -2886,19 +3110,19 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>4864765.28750208</v>
+        <v>4864755.94576468</v>
       </c>
       <c r="C23" t="n">
         <v>120.998263282022</v>
       </c>
       <c r="D23" t="n">
-        <v>12.4234400135923</v>
+        <v>12.4219699277983</v>
       </c>
       <c r="E23" t="n">
         <v>22.4037960740834</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24">
@@ -2906,19 +3130,19 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>5574302.71358618</v>
+        <v>5574307.46278745</v>
       </c>
       <c r="C24" t="n">
         <v>117.559593368293</v>
       </c>
       <c r="D24" t="n">
-        <v>14.5852345211175</v>
+        <v>14.5855521825409</v>
       </c>
       <c r="E24" t="n">
         <v>-2.84191675190804</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25">
@@ -2926,19 +3150,19 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>5846156.1432406</v>
+        <v>5846077.81771556</v>
       </c>
       <c r="C25" t="n">
-        <v>128.042516407747</v>
+        <v>121.786505320736</v>
       </c>
       <c r="D25" t="n">
-        <v>4.87690467530295</v>
+        <v>4.87541020552558</v>
       </c>
       <c r="E25" t="n">
-        <v>8.91711406878846</v>
+        <v>3.59554829285686</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26">
@@ -2946,19 +3170,19 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>5699486.99208693</v>
+        <v>5699393.98609998</v>
       </c>
       <c r="C26" t="n">
-        <v>137.598263180475</v>
+        <v>129.559497753906</v>
       </c>
       <c r="D26" t="n">
-        <v>-2.50881344185884</v>
+        <v>-2.50909817127442</v>
       </c>
       <c r="E26" t="n">
-        <v>7.46294827750653</v>
+        <v>6.38247432480219</v>
       </c>
       <c r="F26" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27">
@@ -2966,19 +3190,19 @@
         <v>104</v>
       </c>
       <c r="B27" t="n">
-        <v>5839293.00022073</v>
+        <v>5694341.93313061</v>
       </c>
       <c r="C27" t="n">
-        <v>145.047178301039</v>
+        <v>132.930989584762</v>
       </c>
       <c r="D27" t="n">
-        <v>2.45295775440675</v>
+        <v>-0.0886419324878096</v>
       </c>
       <c r="E27" t="n">
-        <v>5.41352408699662</v>
+        <v>2.60227300144376</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28">
@@ -2986,19 +3210,19 @@
         <v>108</v>
       </c>
       <c r="B28" t="n">
-        <v>6067398.65730666</v>
+        <v>5738933.99993059</v>
       </c>
       <c r="C28" t="n">
-        <v>152.390950371208</v>
+        <v>137.124372201388</v>
       </c>
       <c r="D28" t="n">
-        <v>3.90639169977094</v>
+        <v>0.783094294716302</v>
       </c>
       <c r="E28" t="n">
-        <v>5.06302304959483</v>
+        <v>3.15455608186266</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29">
@@ -3006,19 +3230,19 @@
         <v>112</v>
       </c>
       <c r="B29" t="n">
-        <v>6267029.87698356</v>
+        <v>5815294.58012758</v>
       </c>
       <c r="C29" t="n">
-        <v>158.817999108735</v>
+        <v>141.735196410622</v>
       </c>
       <c r="D29" t="n">
-        <v>3.29022750856327</v>
+        <v>1.33057080283401</v>
       </c>
       <c r="E29" t="n">
-        <v>4.21747401789381</v>
+        <v>3.3625125389541</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30">
@@ -3026,19 +3250,19 @@
         <v>116</v>
       </c>
       <c r="B30" t="n">
-        <v>6452303.08744377</v>
+        <v>5868266.14561087</v>
       </c>
       <c r="C30" t="n">
-        <v>164.782797376827</v>
+        <v>145.098252615763</v>
       </c>
       <c r="D30" t="n">
-        <v>2.95631605556326</v>
+        <v>0.910900810842907</v>
       </c>
       <c r="E30" t="n">
-        <v>3.75574450097955</v>
+        <v>2.37277422285296</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31">
@@ -3046,19 +3270,99 @@
         <v>120</v>
       </c>
       <c r="B31" t="n">
-        <v>6619274.94499023</v>
+        <v>5940957.14300825</v>
       </c>
       <c r="C31" t="n">
-        <v>170.158390773408</v>
+        <v>148.736111911788</v>
       </c>
       <c r="D31" t="n">
-        <v>2.58778695426423</v>
+        <v>1.2387133710994</v>
       </c>
       <c r="E31" t="n">
-        <v>3.26222972431269</v>
+        <v>2.50716961124147</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="n">
+        <v>6018147.29296962</v>
+      </c>
+      <c r="C32" t="n">
+        <v>152.234774697768</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.29928811306463</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.35226182869146</v>
+      </c>
+      <c r="F32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6099193.80439402</v>
+      </c>
+      <c r="C33" t="n">
+        <v>155.638606894549</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.34670202437688</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.23590976735633</v>
+      </c>
+      <c r="F33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" t="n">
+        <v>6186168.21534777</v>
+      </c>
+      <c r="C34" t="n">
+        <v>159.065989902033</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.42599848017755</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.2021419208706</v>
+      </c>
+      <c r="F34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="n">
+        <v>6276229.44806129</v>
+      </c>
+      <c r="C35" t="n">
+        <v>162.462787179492</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.4558484279507</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.13546420548603</v>
+      </c>
+      <c r="F35" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3080,19 +3384,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
@@ -3103,16 +3407,16 @@
         <v>2779926.82291267</v>
       </c>
       <c r="C2" t="n">
-        <v>2720704.85736815</v>
+        <v>2694315.95451967</v>
       </c>
       <c r="D2" t="n">
-        <v>59221.9655445195</v>
+        <v>85610.8683930031</v>
       </c>
       <c r="E2" t="n">
-        <v>49.9214804817585</v>
+        <v>44.977660261604</v>
       </c>
       <c r="F2" t="n">
-        <v>79587.9694787194</v>
+        <v>134676.595973802</v>
       </c>
     </row>
     <row r="3">
@@ -3123,16 +3427,16 @@
         <v>2905218.8065582</v>
       </c>
       <c r="C3" t="n">
-        <v>2823394.34857957</v>
+        <v>2796880.74726349</v>
       </c>
       <c r="D3" t="n">
-        <v>81824.4579786352</v>
+        <v>108338.059294711</v>
       </c>
       <c r="E3" t="n">
-        <v>52.1715097496507</v>
+        <v>46.5400367366679</v>
       </c>
       <c r="F3" t="n">
-        <v>134991.563382421</v>
+        <v>212293.038933127</v>
       </c>
     </row>
     <row r="4">
@@ -3143,16 +3447,16 @@
         <v>3080473.62090808</v>
       </c>
       <c r="C4" t="n">
-        <v>2723458.96038871</v>
+        <v>2894094.016893</v>
       </c>
       <c r="D4" t="n">
-        <v>357014.66051937</v>
+        <v>186379.604015084</v>
       </c>
       <c r="E4" t="n">
         <v>47.7626040897201</v>
       </c>
       <c r="F4" t="n">
-        <v>447191.848394933</v>
+        <v>350241.505861404</v>
       </c>
     </row>
     <row r="5">
@@ -3163,16 +3467,16 @@
         <v>2818358.22907512</v>
       </c>
       <c r="C5" t="n">
-        <v>2813877.80169788</v>
+        <v>2884511.40725002</v>
       </c>
       <c r="D5" t="n">
-        <v>4480.42737723602</v>
+        <v>-66153.1781749021</v>
       </c>
       <c r="E5" t="n">
         <v>43.9593371684665</v>
       </c>
       <c r="F5" t="n">
-        <v>303210.120278174</v>
+        <v>204181.88530938</v>
       </c>
     </row>
     <row r="6">
@@ -3183,16 +3487,16 @@
         <v>2715368.69830371</v>
       </c>
       <c r="C6" t="n">
-        <v>2911189.70281998</v>
+        <v>2961867.32602711</v>
       </c>
       <c r="D6" t="n">
-        <v>-195821.004516269</v>
+        <v>-246498.627723399</v>
       </c>
       <c r="E6" t="n">
         <v>50.1887666417072</v>
       </c>
       <c r="F6" t="n">
-        <v>6727.6420559343</v>
+        <v>-88897.1808867063</v>
       </c>
     </row>
     <row r="7">
@@ -3203,16 +3507,16 @@
         <v>2586653.50612034</v>
       </c>
       <c r="C7" t="n">
-        <v>2587157.71172873</v>
+        <v>2611896.03924519</v>
       </c>
       <c r="D7" t="n">
-        <v>-504.205608388595</v>
+        <v>-25242.5331248435</v>
       </c>
       <c r="E7" t="n">
         <v>46.132918410694</v>
       </c>
       <c r="F7" t="n">
-        <v>3991.56754346797</v>
+        <v>-93849.1441422715</v>
       </c>
     </row>
     <row r="8">
@@ -3223,16 +3527,16 @@
         <v>2256412.8702433</v>
       </c>
       <c r="C8" t="n">
-        <v>2506286.51525557</v>
+        <v>2530420.79836645</v>
       </c>
       <c r="D8" t="n">
-        <v>-249873.645012273</v>
+        <v>-274007.928123151</v>
       </c>
       <c r="E8" t="n">
         <v>43.5881447703756</v>
       </c>
       <c r="F8" t="n">
-        <v>-247205.593425398</v>
+        <v>-346436.627170084</v>
       </c>
     </row>
     <row r="9">
@@ -3243,16 +3547,16 @@
         <v>2467733.75533328</v>
       </c>
       <c r="C9" t="n">
-        <v>2330301.3830268</v>
+        <v>2327426.16882657</v>
       </c>
       <c r="D9" t="n">
-        <v>137432.372306482</v>
+        <v>140307.586506717</v>
       </c>
       <c r="E9" t="n">
         <v>43.3246884267133</v>
       </c>
       <c r="F9" t="n">
-        <v>-27701.4638378476</v>
+        <v>-127076.435400954</v>
       </c>
     </row>
     <row r="10">
@@ -3263,16 +3567,16 @@
         <v>2516884.8238905</v>
       </c>
       <c r="C10" t="n">
-        <v>2468585.61382882</v>
+        <v>2488535.94785833</v>
       </c>
       <c r="D10" t="n">
-        <v>48299.2100616816</v>
+        <v>28348.8760321722</v>
       </c>
       <c r="E10" t="n">
         <v>43.0559781841494</v>
       </c>
       <c r="F10" t="n">
-        <v>29796.0411092914</v>
+        <v>-69725.7387088924</v>
       </c>
     </row>
     <row r="11">
@@ -3283,16 +3587,16 @@
         <v>2475909.36522961</v>
       </c>
       <c r="C11" t="n">
-        <v>2591234.33982609</v>
+        <v>2615559.27004428</v>
       </c>
       <c r="D11" t="n">
-        <v>-115324.974596475</v>
+        <v>-139649.904814665</v>
       </c>
       <c r="E11" t="n">
         <v>45.7680484563756</v>
       </c>
       <c r="F11" t="n">
-        <v>-95419.3102931427</v>
+        <v>-193459.366524935</v>
       </c>
     </row>
     <row r="12">
@@ -3303,16 +3607,16 @@
         <v>2355799.69170454</v>
       </c>
       <c r="C12" t="n">
-        <v>2602082.92949673</v>
+        <v>2612889.04341339</v>
       </c>
       <c r="D12" t="n">
-        <v>-246283.237792195</v>
+        <v>-257089.351708849</v>
       </c>
       <c r="E12" t="n">
         <v>48.810230656605</v>
       </c>
       <c r="F12" t="n">
-        <v>-310022.516995444</v>
+        <v>-406400.494937324</v>
       </c>
     </row>
     <row r="13">
@@ -3323,16 +3627,16 @@
         <v>2359585.27127462</v>
       </c>
       <c r="C13" t="n">
-        <v>2686331.17767676</v>
+        <v>2672135.71534122</v>
       </c>
       <c r="D13" t="n">
-        <v>-326745.906402145</v>
+        <v>-312550.4440666</v>
       </c>
       <c r="E13" t="n">
         <v>56.1378860800599</v>
       </c>
       <c r="F13" t="n">
-        <v>-533841.993695591</v>
+        <v>-626216.550345229</v>
       </c>
     </row>
     <row r="14">
@@ -3343,16 +3647,16 @@
         <v>2604231.51668673</v>
       </c>
       <c r="C14" t="n">
-        <v>2536482.54572721</v>
+        <v>2502145.07953889</v>
       </c>
       <c r="D14" t="n">
-        <v>67748.9709595243</v>
+        <v>102086.437147837</v>
       </c>
       <c r="E14" t="n">
         <v>56.1270920213629</v>
       </c>
       <c r="F14" t="n">
-        <v>-288860.472919785</v>
+        <v>-381240.926839686</v>
       </c>
     </row>
     <row r="15">
@@ -3363,16 +3667,16 @@
         <v>2760904.5103606</v>
       </c>
       <c r="C15" t="n">
-        <v>2803845.63413403</v>
+        <v>2793114.37347468</v>
       </c>
       <c r="D15" t="n">
-        <v>-42941.1237734238</v>
+        <v>-32209.8631140739</v>
       </c>
       <c r="E15" t="n">
         <v>59.4661010708746</v>
       </c>
       <c r="F15" t="n">
-        <v>-235900.781616591</v>
+        <v>-326456.987649369</v>
       </c>
     </row>
     <row r="16">
@@ -3383,16 +3687,16 @@
         <v>2626296.08948858</v>
       </c>
       <c r="C16" t="n">
-        <v>2710019.88655129</v>
+        <v>2782213.27100692</v>
       </c>
       <c r="D16" t="n">
-        <v>-83723.7970627164</v>
+        <v>-155917.181518339</v>
       </c>
       <c r="E16" t="n">
-        <v>55.3064521394452</v>
+        <v>57.7231691111684</v>
       </c>
       <c r="F16" t="n">
-        <v>-241305.920621413</v>
+        <v>-407880.260841246</v>
       </c>
     </row>
     <row r="17">
@@ -3403,16 +3707,16 @@
         <v>3118309.73167305</v>
       </c>
       <c r="C17" t="n">
-        <v>3305169.54344057</v>
+        <v>3233851.11889624</v>
       </c>
       <c r="D17" t="n">
-        <v>-186859.811767511</v>
+        <v>-115541.387223186</v>
       </c>
       <c r="E17" t="n">
         <v>74.5833060933238</v>
       </c>
       <c r="F17" t="n">
-        <v>-348052.615180074</v>
+        <v>-430349.625471695</v>
       </c>
     </row>
     <row r="18">
@@ -3423,16 +3727,16 @@
         <v>3358018.34496494</v>
       </c>
       <c r="C18" t="n">
-        <v>3535585.54464182</v>
+        <v>3512925.12674595</v>
       </c>
       <c r="D18" t="n">
-        <v>-177567.199676882</v>
+        <v>-154906.78178101</v>
       </c>
       <c r="E18" t="n">
         <v>84.2971828382025</v>
       </c>
       <c r="F18" t="n">
-        <v>-410067.723236129</v>
+        <v>-487057.614300203</v>
       </c>
     </row>
     <row r="19">
@@ -3443,16 +3747,16 @@
         <v>3729930.73235154</v>
       </c>
       <c r="C19" t="n">
-        <v>3811626.85545767</v>
+        <v>3781039.92941918</v>
       </c>
       <c r="D19" t="n">
-        <v>-81696.1231061293</v>
+        <v>-51109.1970676392</v>
       </c>
       <c r="E19" t="n">
         <v>94.5179385928135</v>
       </c>
       <c r="F19" t="n">
-        <v>-355623.278079218</v>
+        <v>-427029.119560415</v>
       </c>
     </row>
     <row r="20">
@@ -3463,16 +3767,16 @@
         <v>3797350</v>
       </c>
       <c r="C20" t="n">
-        <v>4018275.08956461</v>
+        <v>3994655.67445577</v>
       </c>
       <c r="D20" t="n">
-        <v>-220925.089564605</v>
+        <v>-197305.674455769</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>-458482.881768742</v>
+        <v>-526893.631355654</v>
       </c>
     </row>
     <row r="21">
@@ -3483,16 +3787,16 @@
         <v>4327182</v>
       </c>
       <c r="C21" t="n">
-        <v>3913897.27713824</v>
+        <v>3882537.61210504</v>
       </c>
       <c r="D21" t="n">
-        <v>413284.722861757</v>
+        <v>444644.387894961</v>
       </c>
       <c r="E21" t="n">
         <v>98.8517245076202</v>
       </c>
       <c r="F21" t="n">
-        <v>107015.821010467</v>
+        <v>37977.7178854998</v>
       </c>
     </row>
     <row r="22">
@@ -3503,16 +3807,16 @@
         <v>4864766.99584662</v>
       </c>
       <c r="C22" t="n">
-        <v>4979551.23883308</v>
+        <v>4994320.16918174</v>
       </c>
       <c r="D22" t="n">
-        <v>-114784.242986455</v>
+        <v>-129553.173335121</v>
       </c>
       <c r="E22" t="n">
         <v>120.998263282022</v>
       </c>
       <c r="F22" t="n">
-        <v>-43295.0942694144</v>
+        <v>-100233.566645492</v>
       </c>
     </row>
     <row r="23">
@@ -3523,16 +3827,16 @@
         <v>5574304.33964542</v>
       </c>
       <c r="C23" t="n">
-        <v>4772333.36175552</v>
+        <v>4782713.97459988</v>
       </c>
       <c r="D23" t="n">
-        <v>801970.977889897</v>
+        <v>791590.365045539</v>
       </c>
       <c r="E23" t="n">
         <v>117.559593368293</v>
       </c>
       <c r="F23" t="n">
-        <v>773051.12821983</v>
+        <v>714233.95883167</v>
       </c>
     </row>
     <row r="24">
@@ -3543,16 +3847,16 @@
         <v>5846158.21619546</v>
       </c>
       <c r="C24" t="n">
-        <v>5643270.88379311</v>
+        <v>5540329.98230319</v>
       </c>
       <c r="D24" t="n">
-        <v>202887.33240235</v>
+        <v>305828.233892276</v>
       </c>
       <c r="E24" t="n">
-        <v>128.042516407747</v>
+        <v>121.786505320736</v>
       </c>
       <c r="F24" t="n">
-        <v>719293.857630726</v>
+        <v>857104.6383213</v>
       </c>
     </row>
     <row r="25">
@@ -3563,16 +3867,16 @@
         <v>5699489.03561323</v>
       </c>
       <c r="C25" t="n">
-        <v>5904172.58968353</v>
+        <v>5887793.25564851</v>
       </c>
       <c r="D25" t="n">
-        <v>-204683.554070293</v>
+        <v>-188304.220035273</v>
       </c>
       <c r="E25" t="n">
-        <v>137.598263180475</v>
+        <v>129.559497753906</v>
       </c>
       <c r="F25" t="n">
-        <v>275812.646975531</v>
+        <v>473244.471497412</v>
       </c>
     </row>
   </sheetData>
@@ -3594,34 +3898,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2">
@@ -3632,31 +3936,31 @@
         <v>11.5132752575843</v>
       </c>
       <c r="C2" t="n">
-        <v>30487.6579768992</v>
+        <v>63578.8512158147</v>
       </c>
       <c r="D2" t="n">
-        <v>650137.181669422</v>
+        <v>681783.192441174</v>
       </c>
       <c r="E2" t="n">
-        <v>2720704.85736815</v>
+        <v>2694315.95451967</v>
       </c>
       <c r="F2" t="n">
         <v>2779926.82291267</v>
       </c>
       <c r="G2" t="n">
-        <v>59221.9655445195</v>
+        <v>85610.868393003</v>
       </c>
       <c r="H2" t="n">
-        <v>18424.6845447093</v>
+        <v>21829.5518866289</v>
       </c>
       <c r="I2" t="n">
-        <v>668561.866214131</v>
+        <v>703612.744327803</v>
       </c>
       <c r="J2" t="n">
         <v>2779926.82291267</v>
       </c>
       <c r="K2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3">
@@ -3667,31 +3971,31 @@
         <v>10.9949298755609</v>
       </c>
       <c r="C3" t="n">
-        <v>30487.6579768992</v>
+        <v>63578.8512158147</v>
       </c>
       <c r="D3" t="n">
-        <v>634036.802622501</v>
+        <v>665966.008334409</v>
       </c>
       <c r="E3" t="n">
-        <v>2720704.85736815</v>
+        <v>2694315.95451967</v>
       </c>
       <c r="F3" t="n">
         <v>2779926.82291267</v>
       </c>
       <c r="G3" t="n">
-        <v>59221.9655445195</v>
+        <v>85610.868393003</v>
       </c>
       <c r="H3" t="n">
-        <v>16977.0072812776</v>
+        <v>21658.8179712777</v>
       </c>
       <c r="I3" t="n">
-        <v>651013.809903779</v>
+        <v>687624.826305687</v>
       </c>
       <c r="J3" t="n">
         <v>2779926.82291267</v>
       </c>
       <c r="K3" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
@@ -3702,31 +4006,31 @@
         <v>10.6302718035714</v>
       </c>
       <c r="C4" t="n">
-        <v>30487.6579768992</v>
+        <v>63578.8512158147</v>
       </c>
       <c r="D4" t="n">
-        <v>622710.12086712</v>
+        <v>654838.555364421</v>
       </c>
       <c r="E4" t="n">
-        <v>2720704.85736815</v>
+        <v>2694315.95451967</v>
       </c>
       <c r="F4" t="n">
         <v>2779926.82291267</v>
       </c>
       <c r="G4" t="n">
-        <v>59221.9655445195</v>
+        <v>85610.868393003</v>
       </c>
       <c r="H4" t="n">
-        <v>14081.6527544142</v>
+        <v>21317.3501405753</v>
       </c>
       <c r="I4" t="n">
-        <v>636791.773621534</v>
+        <v>676155.905504996</v>
       </c>
       <c r="J4" t="n">
         <v>2779926.82291267</v>
       </c>
       <c r="K4" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5">
@@ -3734,34 +4038,34 @@
         <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>16.7830035450418</v>
+        <v>11.8391833248873</v>
       </c>
       <c r="C5" t="n">
-        <v>30487.6579768992</v>
+        <v>63578.8512158147</v>
       </c>
       <c r="D5" t="n">
-        <v>813820.752209107</v>
+        <v>691728.198379663</v>
       </c>
       <c r="E5" t="n">
-        <v>2720704.85736815</v>
+        <v>2694315.95451967</v>
       </c>
       <c r="F5" t="n">
         <v>2779926.82291267</v>
       </c>
       <c r="G5" t="n">
-        <v>59221.9655445195</v>
+        <v>85610.868393003</v>
       </c>
       <c r="H5" t="n">
-        <v>9738.62096411916</v>
+        <v>20805.1483945217</v>
       </c>
       <c r="I5" t="n">
-        <v>823559.373173227</v>
+        <v>712533.346774185</v>
       </c>
       <c r="J5" t="n">
         <v>2779926.82291267</v>
       </c>
       <c r="K5" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
@@ -3772,31 +4076,31 @@
         <v>12.0321942890087</v>
       </c>
       <c r="C6" t="n">
-        <v>79587.9694787194</v>
+        <v>134676.595973802</v>
       </c>
       <c r="D6" t="n">
-        <v>674455.230934186</v>
+        <v>711334.952757295</v>
       </c>
       <c r="E6" t="n">
-        <v>2823392.65524997</v>
+        <v>2796859.78095176</v>
       </c>
       <c r="F6" t="n">
         <v>2905218.8065582</v>
       </c>
       <c r="G6" t="n">
-        <v>81826.1513082385</v>
+        <v>108359.025606442</v>
       </c>
       <c r="H6" t="n">
-        <v>3947.91191039246</v>
+        <v>20122.2127331169</v>
       </c>
       <c r="I6" t="n">
-        <v>678403.142844579</v>
+        <v>731457.165490411</v>
       </c>
       <c r="J6" t="n">
-        <v>2905217.1132286</v>
+        <v>2905197.84024647</v>
       </c>
       <c r="K6" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7">
@@ -3807,31 +4111,31 @@
         <v>11.4904863730785</v>
       </c>
       <c r="C7" t="n">
-        <v>79587.9694787194</v>
+        <v>134676.595973802</v>
       </c>
       <c r="D7" t="n">
-        <v>657629.185826682</v>
+        <v>694804.866572458</v>
       </c>
       <c r="E7" t="n">
-        <v>2823392.65524997</v>
+        <v>2796859.78095176</v>
       </c>
       <c r="F7" t="n">
         <v>2905218.8065582</v>
       </c>
       <c r="G7" t="n">
-        <v>81826.1513082385</v>
+        <v>108359.025606442</v>
       </c>
       <c r="H7" t="n">
-        <v>8234.90932260843</v>
+        <v>22633.9593047794</v>
       </c>
       <c r="I7" t="n">
-        <v>665864.09514929</v>
+        <v>717438.825877237</v>
       </c>
       <c r="J7" t="n">
-        <v>2905217.1132286</v>
+        <v>2905197.84024647</v>
       </c>
       <c r="K7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8">
@@ -3842,31 +4146,31 @@
         <v>11.109392664028</v>
       </c>
       <c r="C8" t="n">
-        <v>79587.9694787194</v>
+        <v>134676.595973802</v>
       </c>
       <c r="D8" t="n">
-        <v>645791.99506372</v>
+        <v>683175.884108193</v>
       </c>
       <c r="E8" t="n">
-        <v>2823392.65524997</v>
+        <v>2796859.78095176</v>
       </c>
       <c r="F8" t="n">
         <v>2905218.8065582</v>
       </c>
       <c r="G8" t="n">
-        <v>81826.1513082385</v>
+        <v>108359.025606442</v>
       </c>
       <c r="H8" t="n">
-        <v>22599.6132007671</v>
+        <v>28340.3881095093</v>
       </c>
       <c r="I8" t="n">
-        <v>668391.608264487</v>
+        <v>711516.272217702</v>
       </c>
       <c r="J8" t="n">
-        <v>2905217.1132286</v>
+        <v>2905197.84024647</v>
       </c>
       <c r="K8" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9">
@@ -3874,34 +4178,34 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>17.5394364235355</v>
+        <v>11.9079634105527</v>
       </c>
       <c r="C9" t="n">
-        <v>79587.9694787194</v>
+        <v>134676.595973802</v>
       </c>
       <c r="D9" t="n">
-        <v>845516.243425378</v>
+        <v>707544.077513817</v>
       </c>
       <c r="E9" t="n">
-        <v>2823392.65524997</v>
+        <v>2796859.78095176</v>
       </c>
       <c r="F9" t="n">
         <v>2905218.8065582</v>
       </c>
       <c r="G9" t="n">
-        <v>81826.1513082385</v>
+        <v>108359.025606442</v>
       </c>
       <c r="H9" t="n">
-        <v>47042.0235448683</v>
+        <v>37241.4991473065</v>
       </c>
       <c r="I9" t="n">
-        <v>892558.266970246</v>
+        <v>744785.576661123</v>
       </c>
       <c r="J9" t="n">
-        <v>2905217.1132286</v>
+        <v>2905197.84024647</v>
       </c>
       <c r="K9" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10">
@@ -3912,31 +4216,31 @@
         <v>11.674400046272</v>
       </c>
       <c r="C10" t="n">
-        <v>134991.563382421</v>
+        <v>212293.038933127</v>
       </c>
       <c r="D10" t="n">
-        <v>672594.260318336</v>
+        <v>715391.688587354</v>
       </c>
       <c r="E10" t="n">
-        <v>2723457.2367293</v>
+        <v>2894065.09120781</v>
       </c>
       <c r="F10" t="n">
         <v>3080473.62090808</v>
       </c>
       <c r="G10" t="n">
-        <v>357016.38417878</v>
+        <v>186408.529700271</v>
       </c>
       <c r="H10" t="n">
-        <v>81562.1403549123</v>
+        <v>49337.292418171</v>
       </c>
       <c r="I10" t="n">
-        <v>754156.400673248</v>
+        <v>764728.981005525</v>
       </c>
       <c r="J10" t="n">
-        <v>3080471.89724867</v>
+        <v>3080444.6952229</v>
       </c>
       <c r="K10" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
@@ -3947,31 +4251,31 @@
         <v>12.1504275607048</v>
       </c>
       <c r="C11" t="n">
-        <v>134991.563382421</v>
+        <v>212293.038933127</v>
       </c>
       <c r="D11" t="n">
-        <v>687380.199741996</v>
+        <v>729917.553188054</v>
       </c>
       <c r="E11" t="n">
-        <v>2723457.2367293</v>
+        <v>2894065.09120781</v>
       </c>
       <c r="F11" t="n">
         <v>3080473.62090808</v>
       </c>
       <c r="G11" t="n">
-        <v>357016.38417878</v>
+        <v>186408.529700271</v>
       </c>
       <c r="H11" t="n">
-        <v>98446.796988902</v>
+        <v>53078.6531607569</v>
       </c>
       <c r="I11" t="n">
-        <v>785826.996730898</v>
+        <v>782996.20634881</v>
       </c>
       <c r="J11" t="n">
-        <v>3080471.89724867</v>
+        <v>3080444.6952229</v>
       </c>
       <c r="K11" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
@@ -3982,31 +4286,31 @@
         <v>11.3842170717289</v>
       </c>
       <c r="C12" t="n">
-        <v>134991.563382421</v>
+        <v>212293.038933127</v>
       </c>
       <c r="D12" t="n">
-        <v>663580.857199223</v>
+        <v>706536.825223702</v>
       </c>
       <c r="E12" t="n">
-        <v>2723457.2367293</v>
+        <v>2894065.09120781</v>
       </c>
       <c r="F12" t="n">
         <v>3080473.62090808</v>
       </c>
       <c r="G12" t="n">
-        <v>357016.38417878</v>
+        <v>186408.529700271</v>
       </c>
       <c r="H12" t="n">
-        <v>97695.9934468377</v>
+        <v>48465.5813750642</v>
       </c>
       <c r="I12" t="n">
-        <v>761276.850646061</v>
+        <v>755002.406598766</v>
       </c>
       <c r="J12" t="n">
-        <v>3080471.89724867</v>
+        <v>3080444.6952229</v>
       </c>
       <c r="K12" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13">
@@ -4017,31 +4321,31 @@
         <v>12.5535594110144</v>
       </c>
       <c r="C13" t="n">
-        <v>134991.563382421</v>
+        <v>212293.038933127</v>
       </c>
       <c r="D13" t="n">
-        <v>699901.919469746</v>
+        <v>742219.024208701</v>
       </c>
       <c r="E13" t="n">
-        <v>2723457.2367293</v>
+        <v>2894065.09120781</v>
       </c>
       <c r="F13" t="n">
         <v>3080473.62090808</v>
       </c>
       <c r="G13" t="n">
-        <v>357016.38417878</v>
+        <v>186408.529700271</v>
       </c>
       <c r="H13" t="n">
-        <v>79309.7297287192</v>
+        <v>35498.0770610929</v>
       </c>
       <c r="I13" t="n">
-        <v>779211.649198466</v>
+        <v>777717.101269794</v>
       </c>
       <c r="J13" t="n">
-        <v>3080471.89724867</v>
+        <v>3080444.6952229</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14">
@@ -4052,31 +4356,31 @@
         <v>11.4994898193683</v>
       </c>
       <c r="C14" t="n">
-        <v>447191.848394933</v>
+        <v>350241.505861404</v>
       </c>
       <c r="D14" t="n">
-        <v>719299.439359415</v>
+        <v>736669.099110803</v>
       </c>
       <c r="E14" t="n">
-        <v>2813875.90712945</v>
+        <v>2884468.33529216</v>
       </c>
       <c r="F14" t="n">
         <v>2818358.22907512</v>
       </c>
       <c r="G14" t="n">
-        <v>4482.32194567518</v>
+        <v>-66110.1062170379</v>
       </c>
       <c r="H14" t="n">
-        <v>43288.0058345465</v>
+        <v>14176.1402188429</v>
       </c>
       <c r="I14" t="n">
-        <v>762587.445193961</v>
+        <v>750845.239329646</v>
       </c>
       <c r="J14" t="n">
-        <v>2818356.33450668</v>
+        <v>2818315.15711726</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
@@ -4087,31 +4391,31 @@
         <v>10.9967566373843</v>
       </c>
       <c r="C15" t="n">
-        <v>447191.848394933</v>
+        <v>350241.505861404</v>
       </c>
       <c r="D15" t="n">
-        <v>703683.992458334</v>
+        <v>721328.317516531</v>
       </c>
       <c r="E15" t="n">
-        <v>2813875.90712945</v>
+        <v>2884468.33529216</v>
       </c>
       <c r="F15" t="n">
         <v>2818358.22907512</v>
       </c>
       <c r="G15" t="n">
-        <v>4482.32194567518</v>
+        <v>-66110.1062170379</v>
       </c>
       <c r="H15" t="n">
-        <v>12012.1566807825</v>
+        <v>-6638.40842308431</v>
       </c>
       <c r="I15" t="n">
-        <v>715696.149139116</v>
+        <v>714689.909093447</v>
       </c>
       <c r="J15" t="n">
-        <v>2818356.33450668</v>
+        <v>2818315.15711726</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
@@ -4122,31 +4426,31 @@
         <v>10.4086906872325</v>
       </c>
       <c r="C16" t="n">
-        <v>447191.848394933</v>
+        <v>350241.505861404</v>
       </c>
       <c r="D16" t="n">
-        <v>685418.01569768</v>
+        <v>703383.627116934</v>
       </c>
       <c r="E16" t="n">
-        <v>2813875.90712945</v>
+        <v>2884468.33529216</v>
       </c>
       <c r="F16" t="n">
         <v>2818358.22907512</v>
       </c>
       <c r="G16" t="n">
-        <v>4482.32194567518</v>
+        <v>-66110.1062170379</v>
       </c>
       <c r="H16" t="n">
-        <v>-14517.8177325726</v>
+        <v>-26945.5688646888</v>
       </c>
       <c r="I16" t="n">
-        <v>670900.197965107</v>
+        <v>676438.058252245</v>
       </c>
       <c r="J16" t="n">
-        <v>2818356.33450668</v>
+        <v>2818315.15711726</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
@@ -4157,31 +4461,31 @@
         <v>11.0544000244815</v>
       </c>
       <c r="C17" t="n">
-        <v>447191.848394933</v>
+        <v>350241.505861404</v>
       </c>
       <c r="D17" t="n">
-        <v>705474.459614017</v>
+        <v>723087.29154789</v>
       </c>
       <c r="E17" t="n">
-        <v>2813875.90712945</v>
+        <v>2884468.33529216</v>
       </c>
       <c r="F17" t="n">
         <v>2818358.22907512</v>
       </c>
       <c r="G17" t="n">
-        <v>4482.32194567518</v>
+        <v>-66110.1062170379</v>
       </c>
       <c r="H17" t="n">
-        <v>-36301.917405519</v>
+        <v>-46745.3411059706</v>
       </c>
       <c r="I17" t="n">
-        <v>669172.542208498</v>
+        <v>676341.950441919</v>
       </c>
       <c r="J17" t="n">
-        <v>2818356.33450668</v>
+        <v>2818315.15711726</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
@@ -4192,31 +4496,31 @@
         <v>11.6780608073074</v>
       </c>
       <c r="C18" t="n">
-        <v>303210.120278174</v>
+        <v>204181.88530938</v>
       </c>
       <c r="D18" t="n">
-        <v>700800.809244146</v>
+        <v>713938.490018213</v>
       </c>
       <c r="E18" t="n">
-        <v>2911187.88707203</v>
+        <v>2961839.23212058</v>
       </c>
       <c r="F18" t="n">
         <v>2715368.69830371</v>
       </c>
       <c r="G18" t="n">
-        <v>-195819.188768313</v>
+        <v>-246470.53381687</v>
       </c>
       <c r="H18" t="n">
-        <v>-53340.1423380566</v>
+        <v>-66037.7251469297</v>
       </c>
       <c r="I18" t="n">
-        <v>647460.666906089</v>
+        <v>647900.764871283</v>
       </c>
       <c r="J18" t="n">
-        <v>2715366.88255576</v>
+        <v>2715340.60439719</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
@@ -4227,31 +4531,31 @@
         <v>12.4296812997176</v>
       </c>
       <c r="C19" t="n">
-        <v>303210.120278174</v>
+        <v>204181.88530938</v>
       </c>
       <c r="D19" t="n">
-        <v>724146.970407962</v>
+        <v>736874.00776212</v>
       </c>
       <c r="E19" t="n">
-        <v>2911187.88707203</v>
+        <v>2961839.23212058</v>
       </c>
       <c r="F19" t="n">
         <v>2715368.69830371</v>
       </c>
       <c r="G19" t="n">
-        <v>-195819.188768313</v>
+        <v>-246470.53381687</v>
       </c>
       <c r="H19" t="n">
-        <v>-58401.4758274757</v>
+        <v>-71989.4514768811</v>
       </c>
       <c r="I19" t="n">
-        <v>665745.494580486</v>
+        <v>664884.556285239</v>
       </c>
       <c r="J19" t="n">
-        <v>2715366.88255576</v>
+        <v>2715340.60439719</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
@@ -4262,31 +4566,31 @@
         <v>12.6150239262401</v>
       </c>
       <c r="C20" t="n">
-        <v>303210.120278174</v>
+        <v>204181.88530938</v>
       </c>
       <c r="D20" t="n">
-        <v>729903.916729959</v>
+        <v>742529.693234022</v>
       </c>
       <c r="E20" t="n">
-        <v>2911187.88707203</v>
+        <v>2961839.23212058</v>
       </c>
       <c r="F20" t="n">
         <v>2715368.69830371</v>
       </c>
       <c r="G20" t="n">
-        <v>-195819.188768313</v>
+        <v>-246470.53381687</v>
       </c>
       <c r="H20" t="n">
-        <v>-51485.9178737762</v>
+        <v>-64600.5200958248</v>
       </c>
       <c r="I20" t="n">
-        <v>678417.998856183</v>
+        <v>677929.173138198</v>
       </c>
       <c r="J20" t="n">
-        <v>2715366.88255576</v>
+        <v>2715340.60439719</v>
       </c>
       <c r="K20" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
@@ -4297,31 +4601,31 @@
         <v>13.4660006084421</v>
       </c>
       <c r="C21" t="n">
-        <v>303210.120278174</v>
+        <v>204181.88530938</v>
       </c>
       <c r="D21" t="n">
-        <v>756336.19068996</v>
+        <v>768497.041106229</v>
       </c>
       <c r="E21" t="n">
-        <v>2911187.88707203</v>
+        <v>2961839.23212058</v>
       </c>
       <c r="F21" t="n">
         <v>2715368.69830371</v>
       </c>
       <c r="G21" t="n">
-        <v>-195819.188768313</v>
+        <v>-246470.53381687</v>
       </c>
       <c r="H21" t="n">
-        <v>-32593.4684769583</v>
+        <v>-43870.9310037609</v>
       </c>
       <c r="I21" t="n">
-        <v>723742.722213002</v>
+        <v>724626.110102468</v>
       </c>
       <c r="J21" t="n">
-        <v>2715366.88255576</v>
+        <v>2715340.60439719</v>
       </c>
       <c r="K21" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22">
@@ -4332,31 +4636,31 @@
         <v>12.0775521518095</v>
       </c>
       <c r="C22" t="n">
-        <v>6727.6420559343</v>
+        <v>-88897.1808867063</v>
       </c>
       <c r="D22" t="n">
-        <v>663696.273068876</v>
+        <v>669584.371052704</v>
       </c>
       <c r="E22" t="n">
-        <v>2587156.05828534</v>
+        <v>2611897.99986901</v>
       </c>
       <c r="F22" t="n">
         <v>2586653.50612034</v>
       </c>
       <c r="G22" t="n">
-        <v>-502.552165001165</v>
+        <v>-25244.4937486644</v>
       </c>
       <c r="H22" t="n">
-        <v>-1724.12763702181</v>
+        <v>-9800.68420068936</v>
       </c>
       <c r="I22" t="n">
-        <v>661972.145431855</v>
+        <v>659783.686852014</v>
       </c>
       <c r="J22" t="n">
-        <v>2586651.85267696</v>
+        <v>2586655.46674416</v>
       </c>
       <c r="K22" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23">
@@ -4367,31 +4671,31 @@
         <v>11.5680127038727</v>
       </c>
       <c r="C23" t="n">
-        <v>6727.6420559343</v>
+        <v>-88897.1808867063</v>
       </c>
       <c r="D23" t="n">
-        <v>647869.416043321</v>
+        <v>654035.897897189</v>
       </c>
       <c r="E23" t="n">
-        <v>2587156.05828534</v>
+        <v>2611897.99986901</v>
       </c>
       <c r="F23" t="n">
         <v>2586653.50612034</v>
       </c>
       <c r="G23" t="n">
-        <v>-502.552165001165</v>
+        <v>-25244.4937486644</v>
       </c>
       <c r="H23" t="n">
-        <v>11262.8391929229</v>
+        <v>5223.43488833086</v>
       </c>
       <c r="I23" t="n">
-        <v>659132.255236244</v>
+        <v>659259.33278552</v>
       </c>
       <c r="J23" t="n">
-        <v>2586651.85267696</v>
+        <v>2586655.46674416</v>
       </c>
       <c r="K23" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24">
@@ -4402,31 +4706,31 @@
         <v>11.3841267902576</v>
       </c>
       <c r="C24" t="n">
-        <v>6727.6420559343</v>
+        <v>-88897.1808867063</v>
       </c>
       <c r="D24" t="n">
-        <v>642157.71683027</v>
+        <v>648424.663667733</v>
       </c>
       <c r="E24" t="n">
-        <v>2587156.05828534</v>
+        <v>2611897.99986901</v>
       </c>
       <c r="F24" t="n">
         <v>2586653.50612034</v>
       </c>
       <c r="G24" t="n">
-        <v>-502.552165001165</v>
+        <v>-25244.4937486644</v>
       </c>
       <c r="H24" t="n">
-        <v>6367.43201287573</v>
+        <v>1201.42626329973</v>
       </c>
       <c r="I24" t="n">
-        <v>648525.148843145</v>
+        <v>649626.089931033</v>
       </c>
       <c r="J24" t="n">
-        <v>2586651.85267696</v>
+        <v>2586655.46674416</v>
       </c>
       <c r="K24" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25">
@@ -4437,31 +4741,31 @@
         <v>11.1032267647541</v>
       </c>
       <c r="C25" t="n">
-        <v>6727.6420559343</v>
+        <v>-88897.1808867063</v>
       </c>
       <c r="D25" t="n">
-        <v>633432.652342876</v>
+        <v>639853.067251381</v>
       </c>
       <c r="E25" t="n">
-        <v>2587156.05828534</v>
+        <v>2611897.99986901</v>
       </c>
       <c r="F25" t="n">
         <v>2586653.50612034</v>
       </c>
       <c r="G25" t="n">
-        <v>-502.552165001165</v>
+        <v>-25244.4937486644</v>
       </c>
       <c r="H25" t="n">
-        <v>-16410.3491771632</v>
+        <v>-21866.7100757828</v>
       </c>
       <c r="I25" t="n">
-        <v>617022.303165713</v>
+        <v>617986.357175598</v>
       </c>
       <c r="J25" t="n">
-        <v>2586651.85267696</v>
+        <v>2586655.46674416</v>
       </c>
       <c r="K25" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26">
@@ -4472,31 +4776,31 @@
         <v>10.6826764651649</v>
       </c>
       <c r="C26" t="n">
-        <v>3991.56754346797</v>
+        <v>-93849.1441422715</v>
       </c>
       <c r="D26" t="n">
-        <v>619912.966359684</v>
+        <v>626064.681404548</v>
       </c>
       <c r="E26" t="n">
-        <v>2506284.86331</v>
+        <v>2530423.2668018</v>
       </c>
       <c r="F26" t="n">
         <v>2256412.8702433</v>
       </c>
       <c r="G26" t="n">
-        <v>-249871.993066705</v>
+        <v>-274010.396558506</v>
       </c>
       <c r="H26" t="n">
-        <v>-57070.504377194</v>
+        <v>-63980.9741289167</v>
       </c>
       <c r="I26" t="n">
-        <v>562842.46198249</v>
+        <v>562083.707275632</v>
       </c>
       <c r="J26" t="n">
-        <v>2256411.21829773</v>
+        <v>2256415.33867865</v>
       </c>
       <c r="K26" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27">
@@ -4507,31 +4811,31 @@
         <v>10.7360082333431</v>
       </c>
       <c r="C27" t="n">
-        <v>3991.56754346797</v>
+        <v>-93849.1441422715</v>
       </c>
       <c r="D27" t="n">
-        <v>621569.509878138</v>
+        <v>627692.087426226</v>
       </c>
       <c r="E27" t="n">
-        <v>2506284.86331</v>
+        <v>2530423.2668018</v>
       </c>
       <c r="F27" t="n">
         <v>2256412.8702433</v>
       </c>
       <c r="G27" t="n">
-        <v>-249871.993066705</v>
+        <v>-274010.396558506</v>
       </c>
       <c r="H27" t="n">
-        <v>-75493.7292075559</v>
+        <v>-82635.0829109186</v>
       </c>
       <c r="I27" t="n">
-        <v>546075.780670582</v>
+        <v>545057.004515308</v>
       </c>
       <c r="J27" t="n">
-        <v>2256411.21829773</v>
+        <v>2256415.33867865</v>
       </c>
       <c r="K27" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28">
@@ -4542,31 +4846,31 @@
         <v>10.4602240188359</v>
       </c>
       <c r="C28" t="n">
-        <v>3991.56754346797</v>
+        <v>-93849.1441422715</v>
       </c>
       <c r="D28" t="n">
-        <v>613003.348120526</v>
+        <v>619276.598746512</v>
       </c>
       <c r="E28" t="n">
-        <v>2506284.86331</v>
+        <v>2530423.2668018</v>
       </c>
       <c r="F28" t="n">
         <v>2256412.8702433</v>
       </c>
       <c r="G28" t="n">
-        <v>-249871.993066705</v>
+        <v>-274010.396558506</v>
       </c>
       <c r="H28" t="n">
-        <v>-71680.0236682489</v>
+        <v>-77829.0364217887</v>
       </c>
       <c r="I28" t="n">
-        <v>541323.324452278</v>
+        <v>541447.562324723</v>
       </c>
       <c r="J28" t="n">
-        <v>2256411.21829773</v>
+        <v>2256415.33867865</v>
       </c>
       <c r="K28" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29">
@@ -4577,31 +4881,31 @@
         <v>11.7092360530319</v>
       </c>
       <c r="C29" t="n">
-        <v>3991.56754346797</v>
+        <v>-93849.1441422715</v>
       </c>
       <c r="D29" t="n">
-        <v>651799.038951652</v>
+        <v>657389.899224515</v>
       </c>
       <c r="E29" t="n">
-        <v>2506284.86331</v>
+        <v>2530423.2668018</v>
       </c>
       <c r="F29" t="n">
         <v>2256412.8702433</v>
       </c>
       <c r="G29" t="n">
-        <v>-249871.993066705</v>
+        <v>-274010.396558506</v>
       </c>
       <c r="H29" t="n">
-        <v>-45629.3877592731</v>
+        <v>-49562.8346615268</v>
       </c>
       <c r="I29" t="n">
-        <v>606169.651192378</v>
+        <v>607827.064562988</v>
       </c>
       <c r="J29" t="n">
-        <v>2256411.21829773</v>
+        <v>2256415.33867865</v>
       </c>
       <c r="K29" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30">
@@ -4612,31 +4916,31 @@
         <v>11.1034762928996</v>
       </c>
       <c r="C30" t="n">
-        <v>-247205.593425398</v>
+        <v>-346436.627170084</v>
       </c>
       <c r="D30" t="n">
-        <v>591033.035391052</v>
+        <v>590172.931327544</v>
       </c>
       <c r="E30" t="n">
-        <v>2330299.86859508</v>
+        <v>2327454.53948098</v>
       </c>
       <c r="F30" t="n">
         <v>2467733.75533328</v>
       </c>
       <c r="G30" t="n">
-        <v>137433.8867382</v>
+        <v>140279.215852302</v>
       </c>
       <c r="H30" t="n">
-        <v>2658.17851937158</v>
+        <v>2163.52236986703</v>
       </c>
       <c r="I30" t="n">
-        <v>593691.213910424</v>
+        <v>592336.453697411</v>
       </c>
       <c r="J30" t="n">
-        <v>2467732.24090156</v>
+        <v>2467762.1259877</v>
       </c>
       <c r="K30" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31">
@@ -4647,31 +4951,31 @@
         <v>10.8385673600201</v>
       </c>
       <c r="C31" t="n">
-        <v>-247205.593425398</v>
+        <v>-346436.627170084</v>
       </c>
       <c r="D31" t="n">
-        <v>582804.671870911</v>
+        <v>582089.29923937</v>
       </c>
       <c r="E31" t="n">
-        <v>2330299.86859508</v>
+        <v>2327454.53948098</v>
       </c>
       <c r="F31" t="n">
         <v>2467733.75533328</v>
       </c>
       <c r="G31" t="n">
-        <v>137433.8867382</v>
+        <v>140279.215852302</v>
       </c>
       <c r="H31" t="n">
-        <v>34653.1708537291</v>
+        <v>36019.4148851495</v>
       </c>
       <c r="I31" t="n">
-        <v>617457.84272464</v>
+        <v>618108.714124519</v>
       </c>
       <c r="J31" t="n">
-        <v>2467732.24090156</v>
+        <v>2467762.1259877</v>
       </c>
       <c r="K31" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32">
@@ -4682,31 +4986,31 @@
         <v>10.6524063288766</v>
       </c>
       <c r="C32" t="n">
-        <v>-247205.593425398</v>
+        <v>-346436.627170084</v>
       </c>
       <c r="D32" t="n">
-        <v>577022.304999087</v>
+        <v>576408.640348175</v>
       </c>
       <c r="E32" t="n">
-        <v>2330299.86859508</v>
+        <v>2327454.53948098</v>
       </c>
       <c r="F32" t="n">
         <v>2467733.75533328</v>
       </c>
       <c r="G32" t="n">
-        <v>137433.8867382</v>
+        <v>140279.215852302</v>
       </c>
       <c r="H32" t="n">
-        <v>50355.5892437994</v>
+        <v>52004.8428843206</v>
       </c>
       <c r="I32" t="n">
-        <v>627377.894242887</v>
+        <v>628413.483232495</v>
       </c>
       <c r="J32" t="n">
-        <v>2467732.24090156</v>
+        <v>2467762.1259877</v>
       </c>
       <c r="K32" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33">
@@ -4717,31 +5021,31 @@
         <v>10.730238444917</v>
       </c>
       <c r="C33" t="n">
-        <v>-247205.593425398</v>
+        <v>-346436.627170084</v>
       </c>
       <c r="D33" t="n">
-        <v>579439.856334032</v>
+        <v>578783.668565891</v>
       </c>
       <c r="E33" t="n">
-        <v>2330299.86859508</v>
+        <v>2327454.53948098</v>
       </c>
       <c r="F33" t="n">
         <v>2467733.75533328</v>
       </c>
       <c r="G33" t="n">
-        <v>137433.8867382</v>
+        <v>140279.215852302</v>
       </c>
       <c r="H33" t="n">
-        <v>49765.4336895825</v>
+        <v>50119.8063673804</v>
       </c>
       <c r="I33" t="n">
-        <v>629205.290023614</v>
+        <v>628903.474933272</v>
       </c>
       <c r="J33" t="n">
-        <v>2467732.24090156</v>
+        <v>2467762.1259877</v>
       </c>
       <c r="K33" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34">
@@ -4752,31 +5056,31 @@
         <v>10.4485311832442</v>
       </c>
       <c r="C34" t="n">
-        <v>-27701.4638378476</v>
+        <v>-127076.435400954</v>
       </c>
       <c r="D34" t="n">
-        <v>607347.354958219</v>
+        <v>612509.167613789</v>
       </c>
       <c r="E34" t="n">
-        <v>2468583.97923309</v>
+        <v>2488541.82366988</v>
       </c>
       <c r="F34" t="n">
         <v>2516884.8238905</v>
       </c>
       <c r="G34" t="n">
-        <v>48300.8446574085</v>
+        <v>28343.0002206224</v>
       </c>
       <c r="H34" t="n">
-        <v>32882.7041910785</v>
+        <v>30364.3053343288</v>
       </c>
       <c r="I34" t="n">
-        <v>640230.059149297</v>
+        <v>642873.472948118</v>
       </c>
       <c r="J34" t="n">
-        <v>2516883.18929477</v>
+        <v>2516890.69970205</v>
       </c>
       <c r="K34" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35">
@@ -4787,31 +5091,31 @@
         <v>10.3921900189467</v>
       </c>
       <c r="C35" t="n">
-        <v>-27701.4638378476</v>
+        <v>-127076.435400954</v>
       </c>
       <c r="D35" t="n">
-        <v>605597.336278409</v>
+        <v>610789.930596564</v>
       </c>
       <c r="E35" t="n">
-        <v>2468583.97923309</v>
+        <v>2488541.82366988</v>
       </c>
       <c r="F35" t="n">
         <v>2516884.8238905</v>
       </c>
       <c r="G35" t="n">
-        <v>48300.8446574085</v>
+        <v>28343.0002206224</v>
       </c>
       <c r="H35" t="n">
-        <v>17806.4517214137</v>
+        <v>13151.270390594</v>
       </c>
       <c r="I35" t="n">
-        <v>623403.787999823</v>
+        <v>623941.200987158</v>
       </c>
       <c r="J35" t="n">
-        <v>2516883.18929477</v>
+        <v>2516890.69970205</v>
       </c>
       <c r="K35" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36">
@@ -4822,31 +5126,31 @@
         <v>10.7912219460012</v>
       </c>
       <c r="C36" t="n">
-        <v>-27701.4638378476</v>
+        <v>-127076.435400954</v>
       </c>
       <c r="D36" t="n">
-        <v>617991.707869646</v>
+        <v>622966.293449571</v>
       </c>
       <c r="E36" t="n">
-        <v>2468583.97923309</v>
+        <v>2488541.82366988</v>
       </c>
       <c r="F36" t="n">
         <v>2516884.8238905</v>
       </c>
       <c r="G36" t="n">
-        <v>48300.8446574085</v>
+        <v>28343.0002206224</v>
       </c>
       <c r="H36" t="n">
-        <v>4536.67628058823</v>
+        <v>-1519.29846382424</v>
       </c>
       <c r="I36" t="n">
-        <v>622528.384150234</v>
+        <v>621446.994985746</v>
       </c>
       <c r="J36" t="n">
-        <v>2516883.18929477</v>
+        <v>2516890.69970205</v>
       </c>
       <c r="K36" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37">
@@ -4857,31 +5161,31 @@
         <v>11.4240350359573</v>
       </c>
       <c r="C37" t="n">
-        <v>-27701.4638378476</v>
+        <v>-127076.435400954</v>
       </c>
       <c r="D37" t="n">
-        <v>637647.580126818</v>
+        <v>642276.432009954</v>
       </c>
       <c r="E37" t="n">
-        <v>2468583.97923309</v>
+        <v>2488541.82366988</v>
       </c>
       <c r="F37" t="n">
         <v>2516884.8238905</v>
       </c>
       <c r="G37" t="n">
-        <v>48300.8446574085</v>
+        <v>28343.0002206224</v>
       </c>
       <c r="H37" t="n">
-        <v>-6926.62213139796</v>
+        <v>-13647.4012289257</v>
       </c>
       <c r="I37" t="n">
-        <v>630720.95799542</v>
+        <v>628629.030781029</v>
       </c>
       <c r="J37" t="n">
-        <v>2516883.18929477</v>
+        <v>2516890.69970205</v>
       </c>
       <c r="K37" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38">
@@ -4892,31 +5196,31 @@
         <v>10.8677026257417</v>
       </c>
       <c r="C38" t="n">
-        <v>29796.0411092914</v>
+        <v>-69725.7387088924</v>
       </c>
       <c r="D38" t="n">
-        <v>629969.482548056</v>
+        <v>636364.90087991</v>
       </c>
       <c r="E38" t="n">
-        <v>2591232.67375428</v>
+        <v>2615559.26468432</v>
       </c>
       <c r="F38" t="n">
         <v>2475909.36522961</v>
       </c>
       <c r="G38" t="n">
-        <v>-115323.308524664</v>
+        <v>-139649.899454704</v>
       </c>
       <c r="H38" t="n">
-        <v>-16583.4435145449</v>
+        <v>-23233.0379047105</v>
       </c>
       <c r="I38" t="n">
-        <v>613386.039033511</v>
+        <v>613131.8629752</v>
       </c>
       <c r="J38" t="n">
-        <v>2475907.6991578</v>
+        <v>2475909.35986965</v>
       </c>
       <c r="K38" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39">
@@ -4927,31 +5231,31 @@
         <v>11.5009156513608</v>
       </c>
       <c r="C39" t="n">
-        <v>29796.0411092914</v>
+        <v>-69725.7387088924</v>
       </c>
       <c r="D39" t="n">
-        <v>649637.777247853</v>
+        <v>655687.24338043</v>
       </c>
       <c r="E39" t="n">
-        <v>2591232.67375428</v>
+        <v>2615559.26468432</v>
       </c>
       <c r="F39" t="n">
         <v>2475909.36522961</v>
       </c>
       <c r="G39" t="n">
-        <v>-115323.308524664</v>
+        <v>-139649.899454704</v>
       </c>
       <c r="H39" t="n">
-        <v>-25345.2921216332</v>
+        <v>-31739.0678946067</v>
       </c>
       <c r="I39" t="n">
-        <v>624292.48512622</v>
+        <v>623948.175485824</v>
       </c>
       <c r="J39" t="n">
-        <v>2475907.6991578</v>
+        <v>2475909.35986965</v>
       </c>
       <c r="K39" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40">
@@ -4962,31 +5266,31 @@
         <v>11.3867900479062</v>
       </c>
       <c r="C40" t="n">
-        <v>29796.0411092914</v>
+        <v>-69725.7387088924</v>
       </c>
       <c r="D40" t="n">
-        <v>646092.910179866</v>
+        <v>652204.728162313</v>
       </c>
       <c r="E40" t="n">
-        <v>2591232.67375428</v>
+        <v>2615559.26468432</v>
       </c>
       <c r="F40" t="n">
         <v>2475909.36522961</v>
       </c>
       <c r="G40" t="n">
-        <v>-115323.308524664</v>
+        <v>-139649.899454704</v>
       </c>
       <c r="H40" t="n">
-        <v>-33212.1679526629</v>
+        <v>-39165.4911986142</v>
       </c>
       <c r="I40" t="n">
-        <v>612880.742227203</v>
+        <v>613039.236963699</v>
       </c>
       <c r="J40" t="n">
-        <v>2475907.6991578</v>
+        <v>2475909.35986965</v>
       </c>
       <c r="K40" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41">
@@ -4997,31 +5301,31 @@
         <v>12.0126401313669</v>
       </c>
       <c r="C41" t="n">
-        <v>29796.0411092914</v>
+        <v>-69725.7387088924</v>
       </c>
       <c r="D41" t="n">
-        <v>665532.503778503</v>
+        <v>671302.392261664</v>
       </c>
       <c r="E41" t="n">
-        <v>2591232.67375428</v>
+        <v>2615559.26468432</v>
       </c>
       <c r="F41" t="n">
         <v>2475909.36522961</v>
       </c>
       <c r="G41" t="n">
-        <v>-115323.308524664</v>
+        <v>-139649.899454704</v>
       </c>
       <c r="H41" t="n">
-        <v>-40184.071007634</v>
+        <v>-45512.3078167331</v>
       </c>
       <c r="I41" t="n">
-        <v>625348.432770869</v>
+        <v>625790.084444931</v>
       </c>
       <c r="J41" t="n">
-        <v>2475907.6991578</v>
+        <v>2475909.35986965</v>
       </c>
       <c r="K41" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42">
@@ -5032,31 +5336,31 @@
         <v>12.3098021999499</v>
       </c>
       <c r="C42" t="n">
-        <v>-95419.3102931427</v>
+        <v>-193459.366524935</v>
       </c>
       <c r="D42" t="n">
-        <v>653851.466513154</v>
+        <v>656497.972758386</v>
       </c>
       <c r="E42" t="n">
-        <v>2602081.33197205</v>
+        <v>2612901.72662965</v>
       </c>
       <c r="F42" t="n">
         <v>2355799.69170454</v>
       </c>
       <c r="G42" t="n">
-        <v>-246281.640267515</v>
+        <v>-257102.034925118</v>
       </c>
       <c r="H42" t="n">
-        <v>-46261.0012865465</v>
+        <v>-50779.5177489633</v>
       </c>
       <c r="I42" t="n">
-        <v>607590.465226608</v>
+        <v>605718.455009423</v>
       </c>
       <c r="J42" t="n">
-        <v>2355798.09417986</v>
+        <v>2355812.3749208</v>
       </c>
       <c r="K42" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43">
@@ -5067,31 +5371,31 @@
         <v>11.8753902063729</v>
       </c>
       <c r="C43" t="n">
-        <v>-95419.3102931427</v>
+        <v>-193459.366524935</v>
       </c>
       <c r="D43" t="n">
-        <v>640358.15104883</v>
+        <v>643241.995722821</v>
       </c>
       <c r="E43" t="n">
-        <v>2602081.33197205</v>
+        <v>2612901.72662965</v>
       </c>
       <c r="F43" t="n">
         <v>2355799.69170454</v>
       </c>
       <c r="G43" t="n">
-        <v>-246281.640267515</v>
+        <v>-257102.034925118</v>
       </c>
       <c r="H43" t="n">
-        <v>-54815.6966627123</v>
+        <v>-58283.529793155</v>
       </c>
       <c r="I43" t="n">
-        <v>585542.454386117</v>
+        <v>584958.465929666</v>
       </c>
       <c r="J43" t="n">
-        <v>2355798.09417986</v>
+        <v>2355812.3749208</v>
       </c>
       <c r="K43" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44">
@@ -5102,31 +5406,31 @@
         <v>11.5928619498469</v>
       </c>
       <c r="C44" t="n">
-        <v>-95419.3102931427</v>
+        <v>-193459.366524935</v>
       </c>
       <c r="D44" t="n">
-        <v>631582.511910736</v>
+        <v>634620.714230178</v>
       </c>
       <c r="E44" t="n">
-        <v>2602081.33197205</v>
+        <v>2612901.72662965</v>
       </c>
       <c r="F44" t="n">
         <v>2355799.69170454</v>
       </c>
       <c r="G44" t="n">
-        <v>-246281.640267515</v>
+        <v>-257102.034925118</v>
       </c>
       <c r="H44" t="n">
-        <v>-65848.1571361316</v>
+        <v>-68024.3439493082</v>
       </c>
       <c r="I44" t="n">
-        <v>565734.354774604</v>
+        <v>566596.370280869</v>
       </c>
       <c r="J44" t="n">
-        <v>2355798.09417986</v>
+        <v>2355812.3749208</v>
       </c>
       <c r="K44" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45">
@@ -5137,31 +5441,31 @@
         <v>13.0321763004354</v>
       </c>
       <c r="C45" t="n">
-        <v>-95419.3102931427</v>
+        <v>-193459.366524935</v>
       </c>
       <c r="D45" t="n">
-        <v>676289.202499332</v>
+        <v>678541.043918269</v>
       </c>
       <c r="E45" t="n">
-        <v>2602081.33197205</v>
+        <v>2612901.72662965</v>
       </c>
       <c r="F45" t="n">
         <v>2355799.69170454</v>
       </c>
       <c r="G45" t="n">
-        <v>-246281.640267515</v>
+        <v>-257102.034925118</v>
       </c>
       <c r="H45" t="n">
-        <v>-79358.3827068041</v>
+        <v>-80001.9602174228</v>
       </c>
       <c r="I45" t="n">
-        <v>596930.819792528</v>
+        <v>598539.083700847</v>
       </c>
       <c r="J45" t="n">
-        <v>2355798.09417986</v>
+        <v>2355812.3749208</v>
       </c>
       <c r="K45" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46">
@@ -5172,31 +5476,31 @@
         <v>13.1307509692946</v>
       </c>
       <c r="C46" t="n">
-        <v>-310022.516995444</v>
+        <v>-406400.494937324</v>
       </c>
       <c r="D46" t="n">
-        <v>643511.867741436</v>
+        <v>640465.744507544</v>
       </c>
       <c r="E46" t="n">
-        <v>2686329.69763316</v>
+        <v>2672170.23514135</v>
       </c>
       <c r="F46" t="n">
         <v>2359585.27127462</v>
       </c>
       <c r="G46" t="n">
-        <v>-326744.426358543</v>
+        <v>-312584.963866729</v>
       </c>
       <c r="H46" t="n">
-        <v>-95346.3733747301</v>
+        <v>-94216.378597499</v>
       </c>
       <c r="I46" t="n">
-        <v>548165.494366706</v>
+        <v>546249.365910045</v>
       </c>
       <c r="J46" t="n">
-        <v>2359583.79123102</v>
+        <v>2359619.79107475</v>
       </c>
       <c r="K46" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47">
@@ -5207,31 +5511,31 @@
         <v>13.6021547541288</v>
       </c>
       <c r="C47" t="n">
-        <v>-310022.516995444</v>
+        <v>-406400.494937324</v>
       </c>
       <c r="D47" t="n">
-        <v>658154.189026053</v>
+        <v>654850.517116576</v>
       </c>
       <c r="E47" t="n">
-        <v>2686329.69763316</v>
+        <v>2672170.23514135</v>
       </c>
       <c r="F47" t="n">
         <v>2359585.27127462</v>
       </c>
       <c r="G47" t="n">
-        <v>-326744.426358543</v>
+        <v>-312584.963866729</v>
       </c>
       <c r="H47" t="n">
-        <v>-96277.6109322228</v>
+        <v>-93470.6389171898</v>
       </c>
       <c r="I47" t="n">
-        <v>561876.57809383</v>
+        <v>561379.878199387</v>
       </c>
       <c r="J47" t="n">
-        <v>2359583.79123102</v>
+        <v>2359619.79107475</v>
       </c>
       <c r="K47" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48">
@@ -5242,31 +5546,31 @@
         <v>14.2979685244461</v>
       </c>
       <c r="C48" t="n">
-        <v>-310022.516995444</v>
+        <v>-406400.494937324</v>
       </c>
       <c r="D48" t="n">
-        <v>679766.93187416</v>
+        <v>676083.106218014</v>
       </c>
       <c r="E48" t="n">
-        <v>2686329.69763316</v>
+        <v>2672170.23514135</v>
       </c>
       <c r="F48" t="n">
         <v>2359585.27127462</v>
       </c>
       <c r="G48" t="n">
-        <v>-326744.426358543</v>
+        <v>-312584.963866729</v>
       </c>
       <c r="H48" t="n">
-        <v>-82152.0953792824</v>
+        <v>-77764.7411764951</v>
       </c>
       <c r="I48" t="n">
-        <v>597614.836494878</v>
+        <v>598318.365041519</v>
       </c>
       <c r="J48" t="n">
-        <v>2359583.79123102</v>
+        <v>2359619.79107475</v>
       </c>
       <c r="K48" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49">
@@ -5277,31 +5581,31 @@
         <v>15.1070118321903</v>
       </c>
       <c r="C49" t="n">
-        <v>-310022.516995444</v>
+        <v>-406400.494937324</v>
       </c>
       <c r="D49" t="n">
-        <v>704896.708991512</v>
+        <v>700770.867299214</v>
       </c>
       <c r="E49" t="n">
-        <v>2686329.69763316</v>
+        <v>2672170.23514135</v>
       </c>
       <c r="F49" t="n">
         <v>2359585.27127462</v>
       </c>
       <c r="G49" t="n">
-        <v>-326744.426358543</v>
+        <v>-312584.963866729</v>
       </c>
       <c r="H49" t="n">
-        <v>-52969.8267159088</v>
+        <v>-47098.6853754151</v>
       </c>
       <c r="I49" t="n">
-        <v>651926.882275603</v>
+        <v>653672.181923799</v>
       </c>
       <c r="J49" t="n">
-        <v>2359583.79123102</v>
+        <v>2359619.79107475</v>
       </c>
       <c r="K49" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50">
@@ -5312,31 +5616,31 @@
         <v>13.1862273837815</v>
       </c>
       <c r="C50" t="n">
-        <v>-533841.993695591</v>
+        <v>-626216.550345229</v>
       </c>
       <c r="D50" t="n">
-        <v>607856.71782386</v>
+        <v>599748.914863624</v>
       </c>
       <c r="E50" t="n">
-        <v>2536481.18820998</v>
+        <v>2502202.14092957</v>
       </c>
       <c r="F50" t="n">
         <v>2604231.51668673</v>
       </c>
       <c r="G50" t="n">
-        <v>67750.3284767517</v>
+        <v>102029.37575716</v>
       </c>
       <c r="H50" t="n">
-        <v>-8730.80494210211</v>
+        <v>-1472.47151394959</v>
       </c>
       <c r="I50" t="n">
-        <v>599125.912881758</v>
+        <v>598276.443349675</v>
       </c>
       <c r="J50" t="n">
-        <v>2604230.15916951</v>
+        <v>2604288.57807741</v>
       </c>
       <c r="K50" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51">
@@ -5347,31 +5651,31 @@
         <v>13.3740303988291</v>
       </c>
       <c r="C51" t="n">
-        <v>-533841.993695591</v>
+        <v>-626216.550345229</v>
       </c>
       <c r="D51" t="n">
-        <v>613690.086526052</v>
+        <v>605479.678496973</v>
       </c>
       <c r="E51" t="n">
-        <v>2536481.18820998</v>
+        <v>2502202.14092957</v>
       </c>
       <c r="F51" t="n">
         <v>2604231.51668673</v>
       </c>
       <c r="G51" t="n">
-        <v>67750.3284767517</v>
+        <v>102029.37575716</v>
       </c>
       <c r="H51" t="n">
-        <v>19232.0228402142</v>
+        <v>27575.6463510004</v>
       </c>
       <c r="I51" t="n">
-        <v>632922.109366266</v>
+        <v>633055.324847973</v>
       </c>
       <c r="J51" t="n">
-        <v>2604230.15916951</v>
+        <v>2604288.57807741</v>
       </c>
       <c r="K51" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52">
@@ -5382,31 +5686,31 @@
         <v>14.0180411058219</v>
       </c>
       <c r="C52" t="n">
-        <v>-533841.993695591</v>
+        <v>-626216.550345229</v>
       </c>
       <c r="D52" t="n">
-        <v>633693.769113875</v>
+        <v>625131.509636028</v>
       </c>
       <c r="E52" t="n">
-        <v>2536481.18820998</v>
+        <v>2502202.14092957</v>
       </c>
       <c r="F52" t="n">
         <v>2604231.51668673</v>
       </c>
       <c r="G52" t="n">
-        <v>67750.3284767517</v>
+        <v>102029.37575716</v>
       </c>
       <c r="H52" t="n">
-        <v>30918.65663104</v>
+        <v>40045.6682194349</v>
       </c>
       <c r="I52" t="n">
-        <v>664612.425744915</v>
+        <v>665177.177855463</v>
       </c>
       <c r="J52" t="n">
-        <v>2604230.15916951</v>
+        <v>2604288.57807741</v>
       </c>
       <c r="K52" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53">
@@ -5417,31 +5721,31 @@
         <v>15.5487931329305</v>
       </c>
       <c r="C53" t="n">
-        <v>-533841.993695591</v>
+        <v>-626216.550345229</v>
       </c>
       <c r="D53" t="n">
-        <v>681240.614746192</v>
+        <v>671842.037932946</v>
       </c>
       <c r="E53" t="n">
-        <v>2536481.18820998</v>
+        <v>2502202.14092957</v>
       </c>
       <c r="F53" t="n">
         <v>2604231.51668673</v>
       </c>
       <c r="G53" t="n">
-        <v>67750.3284767517</v>
+        <v>102029.37575716</v>
       </c>
       <c r="H53" t="n">
-        <v>26329.0964303753</v>
+        <v>35937.5940913539</v>
       </c>
       <c r="I53" t="n">
-        <v>707569.711176567</v>
+        <v>707779.6320243</v>
       </c>
       <c r="J53" t="n">
-        <v>2604230.15916951</v>
+        <v>2604288.57807741</v>
       </c>
       <c r="K53" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54">
@@ -5452,31 +5756,31 @@
         <v>14.5171217521173</v>
       </c>
       <c r="C54" t="n">
-        <v>-288860.472919785</v>
+        <v>-381240.926839686</v>
       </c>
       <c r="D54" t="n">
-        <v>690108.177210744</v>
+        <v>687624.614438783</v>
       </c>
       <c r="E54" t="n">
-        <v>2803844.1425056</v>
+        <v>2793146.31322358</v>
       </c>
       <c r="F54" t="n">
         <v>2760904.5103606</v>
       </c>
       <c r="G54" t="n">
-        <v>-42939.6321449997</v>
+        <v>-32241.8028629799</v>
       </c>
       <c r="H54" t="n">
-        <v>5463.3422382202</v>
+        <v>15251.4239667574</v>
       </c>
       <c r="I54" t="n">
-        <v>695571.519448965</v>
+        <v>702876.03840554</v>
       </c>
       <c r="J54" t="n">
-        <v>2760903.01873218</v>
+        <v>2760936.45010951</v>
       </c>
       <c r="K54" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55">
@@ -5487,31 +5791,31 @@
         <v>15.141539685646</v>
       </c>
       <c r="C55" t="n">
-        <v>-288860.472919785</v>
+        <v>-381240.926839686</v>
       </c>
       <c r="D55" t="n">
-        <v>709503.286653534</v>
+        <v>706678.57682895</v>
       </c>
       <c r="E55" t="n">
-        <v>2803844.1425056</v>
+        <v>2793146.31322358</v>
       </c>
       <c r="F55" t="n">
         <v>2760904.5103606</v>
       </c>
       <c r="G55" t="n">
-        <v>-42939.6321449997</v>
+        <v>-32241.8028629799</v>
       </c>
       <c r="H55" t="n">
-        <v>-9362.40871127201</v>
+        <v>-2344.59998119124</v>
       </c>
       <c r="I55" t="n">
-        <v>700140.877942262</v>
+        <v>704333.976847758</v>
       </c>
       <c r="J55" t="n">
-        <v>2760903.01873218</v>
+        <v>2760936.45010951</v>
       </c>
       <c r="K55" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56">
@@ -5522,31 +5826,31 @@
         <v>15.0038694878606</v>
       </c>
       <c r="C56" t="n">
-        <v>-288860.472919785</v>
+        <v>-381240.926839686</v>
       </c>
       <c r="D56" t="n">
-        <v>705227.098527468</v>
+        <v>702477.604002904</v>
       </c>
       <c r="E56" t="n">
-        <v>2803844.1425056</v>
+        <v>2793146.31322358</v>
       </c>
       <c r="F56" t="n">
         <v>2760904.5103606</v>
       </c>
       <c r="G56" t="n">
-        <v>-42939.6321449997</v>
+        <v>-32241.8028629799</v>
       </c>
       <c r="H56" t="n">
-        <v>-18148.1564181013</v>
+        <v>-16850.4777524921</v>
       </c>
       <c r="I56" t="n">
-        <v>687078.942109366</v>
+        <v>685627.126250412</v>
       </c>
       <c r="J56" t="n">
-        <v>2760903.01873218</v>
+        <v>2760936.45010951</v>
       </c>
       <c r="K56" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57">
@@ -5557,31 +5861,31 @@
         <v>14.8035701452507</v>
       </c>
       <c r="C57" t="n">
-        <v>-288860.472919785</v>
+        <v>-381240.926839686</v>
       </c>
       <c r="D57" t="n">
-        <v>699005.580113857</v>
+        <v>696365.517952947</v>
       </c>
       <c r="E57" t="n">
-        <v>2803844.1425056</v>
+        <v>2793146.31322358</v>
       </c>
       <c r="F57" t="n">
         <v>2760904.5103606</v>
       </c>
       <c r="G57" t="n">
-        <v>-42939.6321449997</v>
+        <v>-32241.8028629799</v>
       </c>
       <c r="H57" t="n">
-        <v>-20893.9008822676</v>
+        <v>-28266.209347145</v>
       </c>
       <c r="I57" t="n">
-        <v>678111.67923159</v>
+        <v>668099.308605802</v>
       </c>
       <c r="J57" t="n">
-        <v>2760903.01873218</v>
+        <v>2760936.45010951</v>
       </c>
       <c r="K57" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58">
@@ -5592,31 +5896,31 @@
         <v>12.2879888444748</v>
       </c>
       <c r="C58" t="n">
-        <v>-235900.781616591</v>
+        <v>-326456.987649369</v>
       </c>
       <c r="D58" t="n">
-        <v>629713.227779863</v>
+        <v>630172.769106222</v>
       </c>
       <c r="E58" t="n">
-        <v>2710018.36593094</v>
+        <v>2782239.59279892</v>
       </c>
       <c r="F58" t="n">
         <v>2626296.08948858</v>
       </c>
       <c r="G58" t="n">
-        <v>-83722.2764423601</v>
+        <v>-155943.503310342</v>
       </c>
       <c r="H58" t="n">
-        <v>-17599.642103771</v>
+        <v>-36591.7947651502</v>
       </c>
       <c r="I58" t="n">
-        <v>612113.585676092</v>
+        <v>593580.974341072</v>
       </c>
       <c r="J58" t="n">
-        <v>2626294.56886823</v>
+        <v>2626322.41128058</v>
       </c>
       <c r="K58" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59">
@@ -5624,34 +5928,34 @@
         <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>11.4417789282922</v>
+        <v>13.8584959000154</v>
       </c>
       <c r="C59" t="n">
-        <v>-235900.781616591</v>
+        <v>-326456.987649369</v>
       </c>
       <c r="D59" t="n">
-        <v>603429.014827836</v>
+        <v>678096.412491431</v>
       </c>
       <c r="E59" t="n">
-        <v>2710018.36593094</v>
+        <v>2782239.59279892</v>
       </c>
       <c r="F59" t="n">
         <v>2626296.08948858</v>
       </c>
       <c r="G59" t="n">
-        <v>-83722.2764423601</v>
+        <v>-155943.503310342</v>
       </c>
       <c r="H59" t="n">
-        <v>-17614.4614571353</v>
+        <v>-40877.0291781258</v>
       </c>
       <c r="I59" t="n">
-        <v>585814.5533707</v>
+        <v>637219.383313305</v>
       </c>
       <c r="J59" t="n">
-        <v>2626294.56886823</v>
+        <v>2626322.41128058</v>
       </c>
       <c r="K59" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60">
@@ -5662,31 +5966,31 @@
         <v>14.7035540955499</v>
       </c>
       <c r="C60" t="n">
-        <v>-235900.781616591</v>
+        <v>-326456.987649369</v>
       </c>
       <c r="D60" t="n">
-        <v>704743.347664532</v>
+        <v>703883.15917281</v>
       </c>
       <c r="E60" t="n">
-        <v>2710018.36593094</v>
+        <v>2782239.59279892</v>
       </c>
       <c r="F60" t="n">
         <v>2626296.08948858</v>
       </c>
       <c r="G60" t="n">
-        <v>-83722.2764423601</v>
+        <v>-155943.503310342</v>
       </c>
       <c r="H60" t="n">
-        <v>-20938.3589423604</v>
+        <v>-41121.9125860718</v>
       </c>
       <c r="I60" t="n">
-        <v>683804.988722171</v>
+        <v>662761.246586738</v>
       </c>
       <c r="J60" t="n">
-        <v>2626294.56886823</v>
+        <v>2626322.41128058</v>
       </c>
       <c r="K60" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61">
@@ -5697,31 +6001,31 @@
         <v>16.8731302711282</v>
       </c>
       <c r="C61" t="n">
-        <v>-235900.781616591</v>
+        <v>-326456.987649369</v>
       </c>
       <c r="D61" t="n">
-        <v>772132.775658708</v>
+        <v>770087.252028458</v>
       </c>
       <c r="E61" t="n">
-        <v>2710018.36593094</v>
+        <v>2782239.59279892</v>
       </c>
       <c r="F61" t="n">
         <v>2626296.08948858</v>
       </c>
       <c r="G61" t="n">
-        <v>-83722.2764423601</v>
+        <v>-155943.503310342</v>
       </c>
       <c r="H61" t="n">
-        <v>-27571.3345594463</v>
+        <v>-37326.4449889883</v>
       </c>
       <c r="I61" t="n">
-        <v>744561.441099262</v>
+        <v>732760.807039469</v>
       </c>
       <c r="J61" t="n">
-        <v>2626294.56886823</v>
+        <v>2626322.41128058</v>
       </c>
       <c r="K61" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62">
@@ -5732,31 +6036,31 @@
         <v>17.7460496788563</v>
       </c>
       <c r="C62" t="n">
-        <v>-241305.920621413</v>
+        <v>-407880.260841246</v>
       </c>
       <c r="D62" t="n">
-        <v>798343.945641906</v>
+        <v>781014.974576216</v>
       </c>
       <c r="E62" t="n">
-        <v>3305168.02577917</v>
+        <v>3233885.79044269</v>
       </c>
       <c r="F62" t="n">
         <v>3118309.73167305</v>
       </c>
       <c r="G62" t="n">
-        <v>-186858.294106111</v>
+        <v>-115576.058769633</v>
       </c>
       <c r="H62" t="n">
-        <v>-37513.388308393</v>
+        <v>-29490.6263868752</v>
       </c>
       <c r="I62" t="n">
-        <v>760830.557333513</v>
+        <v>751524.348189341</v>
       </c>
       <c r="J62" t="n">
-        <v>3118308.21401166</v>
+        <v>3118344.4032195</v>
       </c>
       <c r="K62" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63">
@@ -5767,31 +6071,31 @@
         <v>18.8053918495146</v>
       </c>
       <c r="C63" t="n">
-        <v>-241305.920621413</v>
+        <v>-407880.260841246</v>
       </c>
       <c r="D63" t="n">
-        <v>831248.281398518</v>
+        <v>813340.544990205</v>
       </c>
       <c r="E63" t="n">
-        <v>3305168.02577917</v>
+        <v>3233885.79044269</v>
       </c>
       <c r="F63" t="n">
         <v>3118309.73167305</v>
       </c>
       <c r="G63" t="n">
-        <v>-186858.294106111</v>
+        <v>-115576.058769633</v>
       </c>
       <c r="H63" t="n">
-        <v>-45170.8356613653</v>
+        <v>-26114.1871135982</v>
       </c>
       <c r="I63" t="n">
-        <v>786077.445737153</v>
+        <v>787226.357876606</v>
       </c>
       <c r="J63" t="n">
-        <v>3118308.21401166</v>
+        <v>3118344.4032195</v>
       </c>
       <c r="K63" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64">
@@ -5802,31 +6106,31 @@
         <v>18.3636489423627</v>
       </c>
       <c r="C64" t="n">
-        <v>-241305.920621413</v>
+        <v>-407880.260841246</v>
       </c>
       <c r="D64" t="n">
-        <v>817527.259676145</v>
+        <v>799860.866897955</v>
       </c>
       <c r="E64" t="n">
-        <v>3305168.02577917</v>
+        <v>3233885.79044269</v>
       </c>
       <c r="F64" t="n">
         <v>3118309.73167305</v>
       </c>
       <c r="G64" t="n">
-        <v>-186858.294106111</v>
+        <v>-115576.058769633</v>
       </c>
       <c r="H64" t="n">
-        <v>-50543.676618363</v>
+        <v>-27197.1271691572</v>
       </c>
       <c r="I64" t="n">
-        <v>766983.583057782</v>
+        <v>772663.739728798</v>
       </c>
       <c r="J64" t="n">
-        <v>3118308.21401166</v>
+        <v>3118344.4032195</v>
       </c>
       <c r="K64" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
@@ -5837,31 +6141,31 @@
         <v>19.6682156225902</v>
       </c>
       <c r="C65" t="n">
-        <v>-241305.920621413</v>
+        <v>-407880.260841246</v>
       </c>
       <c r="D65" t="n">
-        <v>858048.539062597</v>
+        <v>839669.403978313</v>
       </c>
       <c r="E65" t="n">
-        <v>3305168.02577917</v>
+        <v>3233885.79044269</v>
       </c>
       <c r="F65" t="n">
         <v>3118309.73167305</v>
       </c>
       <c r="G65" t="n">
-        <v>-186858.294106111</v>
+        <v>-115576.058769633</v>
       </c>
       <c r="H65" t="n">
-        <v>-53631.9111793861</v>
+        <v>-32739.4465535524</v>
       </c>
       <c r="I65" t="n">
-        <v>804416.62788321</v>
+        <v>806929.95742476</v>
       </c>
       <c r="J65" t="n">
-        <v>3118308.21401166</v>
+        <v>3118344.4032195</v>
       </c>
       <c r="K65" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66">
@@ -5872,31 +6176,31 @@
         <v>19.7741220150292</v>
       </c>
       <c r="C66" t="n">
-        <v>-348052.615180074</v>
+        <v>-430349.625471695</v>
       </c>
       <c r="D66" t="n">
-        <v>843511.19294719</v>
+        <v>838566.039434658</v>
       </c>
       <c r="E66" t="n">
-        <v>3535584.08541718</v>
+        <v>3512962.10246993</v>
       </c>
       <c r="F66" t="n">
         <v>3358018.34496494</v>
       </c>
       <c r="G66" t="n">
-        <v>-177565.740452244</v>
+        <v>-154943.757504995</v>
       </c>
       <c r="H66" t="n">
-        <v>-54435.5393444348</v>
+        <v>-42741.1452667835</v>
       </c>
       <c r="I66" t="n">
-        <v>789075.653602755</v>
+        <v>795824.894167874</v>
       </c>
       <c r="J66" t="n">
-        <v>3358016.8857403</v>
+        <v>3358055.32068892</v>
       </c>
       <c r="K66" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67">
@@ -5907,31 +6211,31 @@
         <v>20.7290921575287</v>
       </c>
       <c r="C67" t="n">
-        <v>-348052.615180074</v>
+        <v>-430349.625471695</v>
       </c>
       <c r="D67" t="n">
-        <v>873173.618437921</v>
+        <v>867706.722624339</v>
       </c>
       <c r="E67" t="n">
-        <v>3535584.08541718</v>
+        <v>3512962.10246993</v>
       </c>
       <c r="F67" t="n">
         <v>3358018.34496494</v>
       </c>
       <c r="G67" t="n">
-        <v>-177565.740452244</v>
+        <v>-154943.757504995</v>
       </c>
       <c r="H67" t="n">
-        <v>-50739.4948403682</v>
+        <v>-45136.0448234633</v>
       </c>
       <c r="I67" t="n">
-        <v>822434.123597553</v>
+        <v>822570.677800875</v>
       </c>
       <c r="J67" t="n">
-        <v>3358016.8857403</v>
+        <v>3358055.32068892</v>
       </c>
       <c r="K67" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68">
@@ -5942,31 +6246,31 @@
         <v>20.9404842135894</v>
       </c>
       <c r="C68" t="n">
-        <v>-348052.615180074</v>
+        <v>-430349.625471695</v>
       </c>
       <c r="D68" t="n">
-        <v>879739.688761147</v>
+        <v>874157.300145388</v>
       </c>
       <c r="E68" t="n">
-        <v>3535584.08541718</v>
+        <v>3512962.10246993</v>
       </c>
       <c r="F68" t="n">
         <v>3358018.34496494</v>
       </c>
       <c r="G68" t="n">
-        <v>-177565.740452244</v>
+        <v>-154943.757504995</v>
       </c>
       <c r="H68" t="n">
-        <v>-42543.7776671865</v>
+        <v>-39924.1452235915</v>
       </c>
       <c r="I68" t="n">
-        <v>837195.911093961</v>
+        <v>834233.154921796</v>
       </c>
       <c r="J68" t="n">
-        <v>3358016.8857403</v>
+        <v>3358055.32068892</v>
       </c>
       <c r="K68" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69">
@@ -5977,31 +6281,31 @@
         <v>22.8534844520553</v>
       </c>
       <c r="C69" t="n">
-        <v>-348052.615180074</v>
+        <v>-430349.625471695</v>
       </c>
       <c r="D69" t="n">
-        <v>939159.585270923</v>
+        <v>932532.040265546</v>
       </c>
       <c r="E69" t="n">
-        <v>3535584.08541718</v>
+        <v>3512962.10246993</v>
       </c>
       <c r="F69" t="n">
         <v>3358018.34496494</v>
       </c>
       <c r="G69" t="n">
-        <v>-177565.740452244</v>
+        <v>-154943.757504995</v>
       </c>
       <c r="H69" t="n">
-        <v>-29848.3878248895</v>
+        <v>-27105.4464671683</v>
       </c>
       <c r="I69" t="n">
-        <v>909311.197446033</v>
+        <v>905426.593798378</v>
       </c>
       <c r="J69" t="n">
-        <v>3358016.8857403</v>
+        <v>3358055.32068892</v>
       </c>
       <c r="K69" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70">
@@ -6012,31 +6316,31 @@
         <v>22.3133969774475</v>
       </c>
       <c r="C70" t="n">
-        <v>-410067.723236129</v>
+        <v>-487057.614300203</v>
       </c>
       <c r="D70" t="n">
-        <v>912027.223491276</v>
+        <v>905110.58277864</v>
       </c>
       <c r="E70" t="n">
-        <v>3811625.43018221</v>
+        <v>3781082.72040658</v>
       </c>
       <c r="F70" t="n">
         <v>3729930.73235154</v>
       </c>
       <c r="G70" t="n">
-        <v>-81694.6978306668</v>
+        <v>-51151.9880550387</v>
       </c>
       <c r="H70" t="n">
-        <v>-12653.3253134774</v>
+        <v>-6679.94855419367</v>
       </c>
       <c r="I70" t="n">
-        <v>899373.898177799</v>
+        <v>898430.634224446</v>
       </c>
       <c r="J70" t="n">
-        <v>3729929.30707608</v>
+        <v>3729973.52333895</v>
       </c>
       <c r="K70" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71">
@@ -6047,31 +6351,31 @@
         <v>23.8861437806652</v>
       </c>
       <c r="C71" t="n">
-        <v>-410067.723236129</v>
+        <v>-487057.614300203</v>
       </c>
       <c r="D71" t="n">
-        <v>960878.473169228</v>
+        <v>953102.571523122</v>
       </c>
       <c r="E71" t="n">
-        <v>3811625.43018221</v>
+        <v>3781082.72040658</v>
       </c>
       <c r="F71" t="n">
         <v>3729930.73235154</v>
       </c>
       <c r="G71" t="n">
-        <v>-81694.6978306668</v>
+        <v>-51151.9880550387</v>
       </c>
       <c r="H71" t="n">
-        <v>-8883.58249413416</v>
+        <v>-948.689674089926</v>
       </c>
       <c r="I71" t="n">
-        <v>951994.890675094</v>
+        <v>952153.881849032</v>
       </c>
       <c r="J71" t="n">
-        <v>3729929.30707608</v>
+        <v>3729973.52333895</v>
       </c>
       <c r="K71" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72">
@@ -6082,31 +6386,31 @@
         <v>24.3321737490058</v>
       </c>
       <c r="C72" t="n">
-        <v>-410067.723236129</v>
+        <v>-487057.614300203</v>
       </c>
       <c r="D72" t="n">
-        <v>974732.655738653</v>
+        <v>966713.068251846</v>
       </c>
       <c r="E72" t="n">
-        <v>3811625.43018221</v>
+        <v>3781082.72040658</v>
       </c>
       <c r="F72" t="n">
         <v>3729930.73235154</v>
       </c>
       <c r="G72" t="n">
-        <v>-81694.6978306668</v>
+        <v>-51151.9880550387</v>
       </c>
       <c r="H72" t="n">
-        <v>-18539.1593668599</v>
+        <v>-9911.66982685713</v>
       </c>
       <c r="I72" t="n">
-        <v>956193.496371793</v>
+        <v>956801.398424989</v>
       </c>
       <c r="J72" t="n">
-        <v>3729929.30707608</v>
+        <v>3729973.52333895</v>
       </c>
       <c r="K72" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73">
@@ -6117,31 +6421,31 @@
         <v>23.986224085695</v>
       </c>
       <c r="C73" t="n">
-        <v>-410067.723236129</v>
+        <v>-487057.614300203</v>
       </c>
       <c r="D73" t="n">
-        <v>963987.077783052</v>
+        <v>956156.497852974</v>
       </c>
       <c r="E73" t="n">
-        <v>3811625.43018221</v>
+        <v>3781082.72040658</v>
       </c>
       <c r="F73" t="n">
         <v>3729930.73235154</v>
       </c>
       <c r="G73" t="n">
-        <v>-81694.6978306668</v>
+        <v>-51151.9880550387</v>
       </c>
       <c r="H73" t="n">
-        <v>-41620.0559316546</v>
+        <v>-33568.8890124953</v>
       </c>
       <c r="I73" t="n">
-        <v>922367.021851397</v>
+        <v>922587.608840479</v>
       </c>
       <c r="J73" t="n">
-        <v>3729929.30707608</v>
+        <v>3729973.52333895</v>
       </c>
       <c r="K73" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74">
@@ -6152,31 +6456,31 @@
         <v>23.5946112709356</v>
       </c>
       <c r="C74" t="n">
-        <v>-355623.278079218</v>
+        <v>-427029.119560415</v>
       </c>
       <c r="D74" t="n">
-        <v>960915.4852404</v>
+        <v>955787.979874245</v>
       </c>
       <c r="E74" t="n">
-        <v>4018273.63448441</v>
+        <v>3994692.30967012</v>
       </c>
       <c r="F74" t="n">
         <v>3797350</v>
       </c>
       <c r="G74" t="n">
-        <v>-220923.634484407</v>
+        <v>-197342.309670119</v>
       </c>
       <c r="H74" t="n">
-        <v>-78126.2721885183</v>
+        <v>-71920.3472310043</v>
       </c>
       <c r="I74" t="n">
-        <v>882789.213051882</v>
+        <v>883867.63264324</v>
       </c>
       <c r="J74" t="n">
-        <v>3797348.5449198</v>
+        <v>3797386.63521435</v>
       </c>
       <c r="K74" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75">
@@ -6187,31 +6491,31 @@
         <v>25.3768812999164</v>
       </c>
       <c r="C75" t="n">
-        <v>-355623.278079218</v>
+        <v>-427029.119560415</v>
       </c>
       <c r="D75" t="n">
-        <v>1016274.75731213</v>
+        <v>1010173.51923473</v>
       </c>
       <c r="E75" t="n">
-        <v>4018273.63448441</v>
+        <v>3994692.30967012</v>
       </c>
       <c r="F75" t="n">
         <v>3797350</v>
       </c>
       <c r="G75" t="n">
-        <v>-220923.634484407</v>
+        <v>-197342.309670119</v>
       </c>
       <c r="H75" t="n">
-        <v>-83570.7587723167</v>
+        <v>-78223.3590715828</v>
       </c>
       <c r="I75" t="n">
-        <v>932703.998539813</v>
+        <v>931950.160163147</v>
       </c>
       <c r="J75" t="n">
-        <v>3797348.5449198</v>
+        <v>3797386.63521435</v>
       </c>
       <c r="K75" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76">
@@ -6222,31 +6526,31 @@
         <v>25.2558385830737</v>
       </c>
       <c r="C76" t="n">
-        <v>-355623.278079218</v>
+        <v>-427029.119560415</v>
       </c>
       <c r="D76" t="n">
-        <v>1012515.03707612</v>
+        <v>1006479.92997266</v>
       </c>
       <c r="E76" t="n">
-        <v>4018273.63448441</v>
+        <v>3994692.30967012</v>
       </c>
       <c r="F76" t="n">
         <v>3797350</v>
       </c>
       <c r="G76" t="n">
-        <v>-220923.634484407</v>
+        <v>-197342.309670119</v>
       </c>
       <c r="H76" t="n">
-        <v>-57953.5156830499</v>
+        <v>-52477.9245342309</v>
       </c>
       <c r="I76" t="n">
-        <v>954561.521393069</v>
+        <v>954002.005438432</v>
       </c>
       <c r="J76" t="n">
-        <v>3797348.5449198</v>
+        <v>3797386.63521435</v>
       </c>
       <c r="K76" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77">
@@ -6257,31 +6561,31 @@
         <v>25.7726688460743</v>
       </c>
       <c r="C77" t="n">
-        <v>-355623.278079218</v>
+        <v>-427029.119560415</v>
       </c>
       <c r="D77" t="n">
-        <v>1028568.35485576</v>
+        <v>1022250.88058848</v>
       </c>
       <c r="E77" t="n">
-        <v>4018273.63448441</v>
+        <v>3994692.30967012</v>
       </c>
       <c r="F77" t="n">
         <v>3797350</v>
       </c>
       <c r="G77" t="n">
-        <v>-220923.634484407</v>
+        <v>-197342.309670119</v>
       </c>
       <c r="H77" t="n">
-        <v>-1274.5429207179</v>
+        <v>5315.95638105149</v>
       </c>
       <c r="I77" t="n">
-        <v>1027293.81193504</v>
+        <v>1027566.83696953</v>
       </c>
       <c r="J77" t="n">
-        <v>3797348.5449198</v>
+        <v>3797386.63521435</v>
       </c>
       <c r="K77" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78">
@@ -6292,31 +6596,31 @@
         <v>24.7004974443542</v>
       </c>
       <c r="C78" t="n">
-        <v>-458482.881768742</v>
+        <v>-526893.631355654</v>
       </c>
       <c r="D78" t="n">
-        <v>978087.765703422</v>
+        <v>970266.711225042</v>
       </c>
       <c r="E78" t="n">
-        <v>3913895.87836688</v>
+        <v>3882584.48817705</v>
       </c>
       <c r="F78" t="n">
         <v>4327182</v>
       </c>
       <c r="G78" t="n">
-        <v>413286.121633119</v>
+        <v>444597.511822949</v>
       </c>
       <c r="H78" t="n">
-        <v>86466.1595146793</v>
+        <v>95158.2836742644</v>
       </c>
       <c r="I78" t="n">
-        <v>1064553.9252181</v>
+        <v>1065424.99489931</v>
       </c>
       <c r="J78" t="n">
-        <v>4327180.60122864</v>
+        <v>4327228.87607201</v>
       </c>
       <c r="K78" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79">
@@ -6327,31 +6631,31 @@
         <v>24.6273390228042</v>
       </c>
       <c r="C79" t="n">
-        <v>-458482.881768742</v>
+        <v>-526893.631355654</v>
       </c>
       <c r="D79" t="n">
-        <v>975815.384472145</v>
+        <v>968034.299665592</v>
       </c>
       <c r="E79" t="n">
-        <v>3913895.87836688</v>
+        <v>3882584.48817705</v>
       </c>
       <c r="F79" t="n">
         <v>4327182</v>
       </c>
       <c r="G79" t="n">
-        <v>413286.121633119</v>
+        <v>444597.511822949</v>
       </c>
       <c r="H79" t="n">
-        <v>128304.448969142</v>
+        <v>137496.33991134</v>
       </c>
       <c r="I79" t="n">
-        <v>1104119.83344129</v>
+        <v>1105530.63957693</v>
       </c>
       <c r="J79" t="n">
-        <v>4327180.60122864</v>
+        <v>4327228.87607201</v>
       </c>
       <c r="K79" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80">
@@ -6362,31 +6666,31 @@
         <v>24.2401476701082</v>
       </c>
       <c r="C80" t="n">
-        <v>-458482.881768742</v>
+        <v>-526893.631355654</v>
       </c>
       <c r="D80" t="n">
-        <v>963788.794174842</v>
+        <v>956219.249078603</v>
       </c>
       <c r="E80" t="n">
-        <v>3913895.87836688</v>
+        <v>3882584.48817705</v>
       </c>
       <c r="F80" t="n">
         <v>4327182</v>
       </c>
       <c r="G80" t="n">
-        <v>413286.121633119</v>
+        <v>444597.511822949</v>
       </c>
       <c r="H80" t="n">
-        <v>124240.325442671</v>
+        <v>132330.125092279</v>
       </c>
       <c r="I80" t="n">
-        <v>1088029.11961751</v>
+        <v>1088549.37417088</v>
       </c>
       <c r="J80" t="n">
-        <v>4327180.60122864</v>
+        <v>4327228.87607201</v>
       </c>
       <c r="K80" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81">
@@ -6397,31 +6701,31 @@
         <v>25.2837403703537</v>
       </c>
       <c r="C81" t="n">
-        <v>-458482.881768742</v>
+        <v>-526893.631355654</v>
       </c>
       <c r="D81" t="n">
-        <v>996203.934016471</v>
+        <v>988064.228207813</v>
       </c>
       <c r="E81" t="n">
-        <v>3913895.87836688</v>
+        <v>3882584.48817705</v>
       </c>
       <c r="F81" t="n">
         <v>4327182</v>
       </c>
       <c r="G81" t="n">
-        <v>413286.121633119</v>
+        <v>444597.511822949</v>
       </c>
       <c r="H81" t="n">
-        <v>74273.7889352662</v>
+        <v>79659.6392170804</v>
       </c>
       <c r="I81" t="n">
-        <v>1070477.72295174</v>
+        <v>1067723.86742489</v>
       </c>
       <c r="J81" t="n">
-        <v>4327180.60122864</v>
+        <v>4327228.87607201</v>
       </c>
       <c r="K81" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82">
@@ -6432,31 +6736,31 @@
         <v>31.0449181214106</v>
       </c>
       <c r="C82" t="n">
-        <v>107015.821010467</v>
+        <v>37977.7178854998</v>
       </c>
       <c r="D82" t="n">
-        <v>1269591.90197258</v>
+        <v>1272847.26309003</v>
       </c>
       <c r="E82" t="n">
-        <v>4979549.53048854</v>
+        <v>4994309.1190998</v>
       </c>
       <c r="F82" t="n">
         <v>4864766.99584662</v>
       </c>
       <c r="G82" t="n">
-        <v>-114782.534641916</v>
+        <v>-129542.123253178</v>
       </c>
       <c r="H82" t="n">
-        <v>-21595.1605530732</v>
+        <v>-20515.1177142552</v>
       </c>
       <c r="I82" t="n">
-        <v>1247996.74141951</v>
+        <v>1252332.14537577</v>
       </c>
       <c r="J82" t="n">
-        <v>4864765.28750208</v>
+        <v>4864755.94576468</v>
       </c>
       <c r="K82" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83">
@@ -6467,31 +6771,31 @@
         <v>29.834420842916</v>
       </c>
       <c r="C83" t="n">
-        <v>107015.821010467</v>
+        <v>37977.7178854998</v>
       </c>
       <c r="D83" t="n">
-        <v>1231992.52191647</v>
+        <v>1235909.23107757</v>
       </c>
       <c r="E83" t="n">
-        <v>4979549.53048854</v>
+        <v>4994309.1190998</v>
       </c>
       <c r="F83" t="n">
         <v>4864766.99584662</v>
       </c>
       <c r="G83" t="n">
-        <v>-114782.534641916</v>
+        <v>-129542.123253178</v>
       </c>
       <c r="H83" t="n">
-        <v>-62783.1004258249</v>
+        <v>-65334.2907345992</v>
       </c>
       <c r="I83" t="n">
-        <v>1169209.42149064</v>
+        <v>1170574.94034297</v>
       </c>
       <c r="J83" t="n">
-        <v>4864765.28750208</v>
+        <v>4864755.94576468</v>
       </c>
       <c r="K83" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84">
@@ -6502,31 +6806,31 @@
         <v>29.814654831921</v>
       </c>
       <c r="C84" t="n">
-        <v>107015.821010467</v>
+        <v>37977.7178854998</v>
       </c>
       <c r="D84" t="n">
-        <v>1231378.56782273</v>
+        <v>1235306.07602728</v>
       </c>
       <c r="E84" t="n">
-        <v>4979549.53048854</v>
+        <v>4994309.1190998</v>
       </c>
       <c r="F84" t="n">
         <v>4864766.99584662</v>
       </c>
       <c r="G84" t="n">
-        <v>-114782.534641916</v>
+        <v>-129542.123253178</v>
       </c>
       <c r="H84" t="n">
-        <v>-49290.030682989</v>
+        <v>-54797.8798439515</v>
       </c>
       <c r="I84" t="n">
-        <v>1182088.53713974</v>
+        <v>1180508.19618333</v>
       </c>
       <c r="J84" t="n">
-        <v>4864765.28750208</v>
+        <v>4864755.94576468</v>
       </c>
       <c r="K84" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85">
@@ -6537,31 +6841,31 @@
         <v>30.3042694857745</v>
       </c>
       <c r="C85" t="n">
-        <v>107015.821010467</v>
+        <v>37977.7178854998</v>
       </c>
       <c r="D85" t="n">
-        <v>1246586.53877676</v>
+        <v>1250246.54890492</v>
       </c>
       <c r="E85" t="n">
-        <v>4979549.53048854</v>
+        <v>4994309.1190998</v>
       </c>
       <c r="F85" t="n">
         <v>4864766.99584662</v>
       </c>
       <c r="G85" t="n">
-        <v>-114782.534641916</v>
+        <v>-129542.123253178</v>
       </c>
       <c r="H85" t="n">
-        <v>18884.0486754345</v>
+        <v>11094.1149576878</v>
       </c>
       <c r="I85" t="n">
-        <v>1265470.58745219</v>
+        <v>1261340.66386261</v>
       </c>
       <c r="J85" t="n">
-        <v>4864765.28750208</v>
+        <v>4864755.94576468</v>
       </c>
       <c r="K85" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86">
@@ -6572,31 +6876,31 @@
         <v>31.0501759850984</v>
       </c>
       <c r="C86" t="n">
-        <v>-43295.0942694144</v>
+        <v>-100233.566645492</v>
       </c>
       <c r="D86" t="n">
-        <v>1244652.98799012</v>
+        <v>1246342.24561034</v>
       </c>
       <c r="E86" t="n">
-        <v>4772331.73569628</v>
+        <v>4782717.09774191</v>
       </c>
       <c r="F86" t="n">
         <v>5574304.33964542</v>
       </c>
       <c r="G86" t="n">
-        <v>801972.603949142</v>
+        <v>791587.241903514</v>
       </c>
       <c r="H86" t="n">
-        <v>141739.137649446</v>
+        <v>132341.693670319</v>
       </c>
       <c r="I86" t="n">
-        <v>1386392.12563957</v>
+        <v>1378683.93928066</v>
       </c>
       <c r="J86" t="n">
-        <v>5574302.71358618</v>
+        <v>5574307.46278745</v>
       </c>
       <c r="K86" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87">
@@ -6607,31 +6911,31 @@
         <v>27.7009529705329</v>
       </c>
       <c r="C87" t="n">
-        <v>-43295.0942694144</v>
+        <v>-100233.566645492</v>
       </c>
       <c r="D87" t="n">
-        <v>1140622.42860387</v>
+        <v>1144141.51445074</v>
       </c>
       <c r="E87" t="n">
-        <v>4772331.73569628</v>
+        <v>4782717.09774191</v>
       </c>
       <c r="F87" t="n">
         <v>5574304.33964542</v>
       </c>
       <c r="G87" t="n">
-        <v>801972.603949142</v>
+        <v>791587.241903514</v>
       </c>
       <c r="H87" t="n">
-        <v>214382.615968262</v>
+        <v>207063.084191798</v>
       </c>
       <c r="I87" t="n">
-        <v>1355005.04457213</v>
+        <v>1351204.59864253</v>
       </c>
       <c r="J87" t="n">
-        <v>5574302.71358618</v>
+        <v>5574307.46278745</v>
       </c>
       <c r="K87" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88">
@@ -6642,31 +6946,31 @@
         <v>29.4833523390985</v>
       </c>
       <c r="C88" t="n">
-        <v>-43295.0942694144</v>
+        <v>-100233.566645492</v>
       </c>
       <c r="D88" t="n">
-        <v>1195985.7181057</v>
+        <v>1198531.0005774</v>
       </c>
       <c r="E88" t="n">
-        <v>4772331.73569628</v>
+        <v>4782717.09774191</v>
       </c>
       <c r="F88" t="n">
         <v>5574304.33964542</v>
       </c>
       <c r="G88" t="n">
-        <v>801972.603949142</v>
+        <v>791587.241903514</v>
       </c>
       <c r="H88" t="n">
-        <v>236814.483631883</v>
+        <v>235258.286522125</v>
       </c>
       <c r="I88" t="n">
-        <v>1432800.20173758</v>
+        <v>1433789.28709953</v>
       </c>
       <c r="J88" t="n">
-        <v>5574302.71358618</v>
+        <v>5574307.46278745</v>
       </c>
       <c r="K88" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89">
@@ -6677,31 +6981,31 @@
         <v>29.3251120735627</v>
       </c>
       <c r="C89" t="n">
-        <v>-43295.0942694144</v>
+        <v>-100233.566645492</v>
       </c>
       <c r="D89" t="n">
-        <v>1191070.60099659</v>
+        <v>1193702.33710342</v>
       </c>
       <c r="E89" t="n">
-        <v>4772331.73569628</v>
+        <v>4782717.09774191</v>
       </c>
       <c r="F89" t="n">
         <v>5574304.33964542</v>
       </c>
       <c r="G89" t="n">
-        <v>801972.603949142</v>
+        <v>791587.241903514</v>
       </c>
       <c r="H89" t="n">
-        <v>209034.740640309</v>
+        <v>216927.3006613</v>
       </c>
       <c r="I89" t="n">
-        <v>1400105.3416369</v>
+        <v>1410629.63776472</v>
       </c>
       <c r="J89" t="n">
-        <v>5574302.71358618</v>
+        <v>5574307.46278745</v>
       </c>
       <c r="K89" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90">
@@ -6709,34 +7013,34 @@
         <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>34.7358344637944</v>
+        <v>28.479823376783</v>
       </c>
       <c r="C90" t="n">
-        <v>773051.12821983</v>
+        <v>714233.95883167</v>
       </c>
       <c r="D90" t="n">
-        <v>1495465.08581664</v>
+        <v>1325045.87898747</v>
       </c>
       <c r="E90" t="n">
-        <v>5643268.81083825</v>
+        <v>5540249.58382328</v>
       </c>
       <c r="F90" t="n">
         <v>5846158.21619546</v>
       </c>
       <c r="G90" t="n">
-        <v>202889.405357215</v>
+        <v>305908.632372183</v>
       </c>
       <c r="H90" t="n">
-        <v>131043.386993541</v>
+        <v>152070.126609323</v>
       </c>
       <c r="I90" t="n">
-        <v>1626508.47281018</v>
+        <v>1477116.0055968</v>
       </c>
       <c r="J90" t="n">
-        <v>5846156.1432406</v>
+        <v>5846077.81771556</v>
       </c>
       <c r="K90" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91">
@@ -6747,31 +7051,31 @@
         <v>29.138496779862</v>
       </c>
       <c r="C91" t="n">
-        <v>773051.12821983</v>
+        <v>714233.95883167</v>
       </c>
       <c r="D91" t="n">
-        <v>1321605.60622961</v>
+        <v>1345145.13875528</v>
       </c>
       <c r="E91" t="n">
-        <v>5643268.81083825</v>
+        <v>5540249.58382328</v>
       </c>
       <c r="F91" t="n">
         <v>5846158.21619546</v>
       </c>
       <c r="G91" t="n">
-        <v>202889.405357215</v>
+        <v>305908.632372183</v>
       </c>
       <c r="H91" t="n">
-        <v>67718.2239776523</v>
+        <v>95882.0297340312</v>
       </c>
       <c r="I91" t="n">
-        <v>1389323.83020727</v>
+        <v>1441027.16848931</v>
       </c>
       <c r="J91" t="n">
-        <v>5846156.1432406</v>
+        <v>5846077.81771556</v>
       </c>
       <c r="K91" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92">
@@ -6782,31 +7086,31 @@
         <v>32.5750274467005</v>
       </c>
       <c r="C92" t="n">
-        <v>773051.12821983</v>
+        <v>714233.95883167</v>
       </c>
       <c r="D92" t="n">
-        <v>1428348.03755308</v>
+        <v>1450010.04183157</v>
       </c>
       <c r="E92" t="n">
-        <v>5643268.81083825</v>
+        <v>5540249.58382328</v>
       </c>
       <c r="F92" t="n">
         <v>5846158.21619546</v>
       </c>
       <c r="G92" t="n">
-        <v>202889.405357215</v>
+        <v>305908.632372183</v>
       </c>
       <c r="H92" t="n">
-        <v>19059.2515926443</v>
+        <v>48363.0100354243</v>
       </c>
       <c r="I92" t="n">
-        <v>1447407.28914572</v>
+        <v>1498373.051867</v>
       </c>
       <c r="J92" t="n">
-        <v>5846156.1432406</v>
+        <v>5846077.81771556</v>
       </c>
       <c r="K92" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93">
@@ -6817,31 +7121,31 @@
         <v>31.5931577173902</v>
       </c>
       <c r="C93" t="n">
-        <v>773051.12821983</v>
+        <v>714233.95883167</v>
       </c>
       <c r="D93" t="n">
-        <v>1397850.08123892</v>
+        <v>1420048.52424896</v>
       </c>
       <c r="E93" t="n">
-        <v>5643268.81083825</v>
+        <v>5540249.58382328</v>
       </c>
       <c r="F93" t="n">
         <v>5846158.21619546</v>
       </c>
       <c r="G93" t="n">
-        <v>202889.405357215</v>
+        <v>305908.632372183</v>
       </c>
       <c r="H93" t="n">
-        <v>-14933.5301614834</v>
+        <v>9513.06751350226</v>
       </c>
       <c r="I93" t="n">
-        <v>1382916.55107744</v>
+        <v>1429561.59176246</v>
       </c>
       <c r="J93" t="n">
-        <v>5846156.1432406</v>
+        <v>5846077.81771556</v>
       </c>
       <c r="K93" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94">
@@ -6849,34 +7153,34 @@
         <v>26</v>
       </c>
       <c r="B94" t="n">
-        <v>38.2311293341669</v>
+        <v>30.1923639075973</v>
       </c>
       <c r="C94" t="n">
-        <v>719293.857630726</v>
+        <v>857104.6383213</v>
       </c>
       <c r="D94" t="n">
-        <v>1595055.22440152</v>
+        <v>1404868.04857475</v>
       </c>
       <c r="E94" t="n">
-        <v>5904170.54615721</v>
+        <v>5887698.20613525</v>
       </c>
       <c r="F94" t="n">
         <v>5699489.03561323</v>
       </c>
       <c r="G94" t="n">
-        <v>-204681.510543981</v>
+        <v>-188209.170522016</v>
       </c>
       <c r="H94" t="n">
-        <v>-34260.1212847307</v>
+        <v>-20667.7978317348</v>
       </c>
       <c r="I94" t="n">
-        <v>1560795.10311679</v>
+        <v>1384200.25074301</v>
       </c>
       <c r="J94" t="n">
-        <v>5699486.99208693</v>
+        <v>5699393.98609998</v>
       </c>
       <c r="K94" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95">
@@ -6887,31 +7191,31 @@
         <v>30.2889527827546</v>
       </c>
       <c r="C95" t="n">
-        <v>719293.857630726</v>
+        <v>857104.6383213</v>
       </c>
       <c r="D95" t="n">
-        <v>1348362.46438089</v>
+        <v>1407815.43476552</v>
       </c>
       <c r="E95" t="n">
-        <v>5904170.54615721</v>
+        <v>5887698.20613525</v>
       </c>
       <c r="F95" t="n">
         <v>5699489.03561323</v>
       </c>
       <c r="G95" t="n">
-        <v>-204681.510543981</v>
+        <v>-188209.170522016</v>
       </c>
       <c r="H95" t="n">
-        <v>-48755.0646271662</v>
+        <v>-43303.4468406626</v>
       </c>
       <c r="I95" t="n">
-        <v>1299607.39975372</v>
+        <v>1364511.98792486</v>
       </c>
       <c r="J95" t="n">
-        <v>5699486.99208693</v>
+        <v>5699393.98609998</v>
       </c>
       <c r="K95" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96">
@@ -6922,31 +7226,31 @@
         <v>35.3985120379008</v>
       </c>
       <c r="C96" t="n">
-        <v>719293.857630726</v>
+        <v>857104.6383213</v>
       </c>
       <c r="D96" t="n">
-        <v>1507071.00818893</v>
+        <v>1563732.40103151</v>
       </c>
       <c r="E96" t="n">
-        <v>5904170.54615721</v>
+        <v>5887698.20613525</v>
       </c>
       <c r="F96" t="n">
         <v>5699489.03561323</v>
       </c>
       <c r="G96" t="n">
-        <v>-204681.510543981</v>
+        <v>-188209.170522016</v>
       </c>
       <c r="H96" t="n">
-        <v>-58418.3601887899</v>
+        <v>-58393.8795132811</v>
       </c>
       <c r="I96" t="n">
-        <v>1448652.64800014</v>
+        <v>1505338.52151823</v>
       </c>
       <c r="J96" t="n">
-        <v>5699486.99208693</v>
+        <v>5699393.98609998</v>
       </c>
       <c r="K96" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97">
@@ -6957,31 +7261,31 @@
         <v>33.6796690256528</v>
       </c>
       <c r="C97" t="n">
-        <v>719293.857630726</v>
+        <v>857104.6383213</v>
       </c>
       <c r="D97" t="n">
-        <v>1453681.84918588</v>
+        <v>1511282.32176347</v>
       </c>
       <c r="E97" t="n">
-        <v>5904170.54615721</v>
+        <v>5887698.20613525</v>
       </c>
       <c r="F97" t="n">
         <v>5699489.03561323</v>
       </c>
       <c r="G97" t="n">
-        <v>-204681.510543981</v>
+        <v>-188209.170522016</v>
       </c>
       <c r="H97" t="n">
-        <v>-63250.0079696017</v>
+        <v>-65939.0958495903</v>
       </c>
       <c r="I97" t="n">
-        <v>1390431.84121628</v>
+        <v>1445343.22591388</v>
       </c>
       <c r="J97" t="n">
-        <v>5699486.99208693</v>
+        <v>5699393.98609998</v>
       </c>
       <c r="K97" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -7003,13 +7307,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2">
@@ -7017,13 +7321,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>668561.866214131</v>
+        <v>703612.744327803</v>
       </c>
       <c r="C2" t="n">
         <v>11.5132752575843</v>
       </c>
       <c r="D2" t="n">
-        <v>30487.6579768992</v>
+        <v>63578.8512158147</v>
       </c>
     </row>
     <row r="3">
@@ -7031,13 +7335,13 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>651013.809903779</v>
+        <v>687624.826305687</v>
       </c>
       <c r="C3" t="n">
         <v>10.9949298755609</v>
       </c>
       <c r="D3" t="n">
-        <v>30487.6579768992</v>
+        <v>63578.8512158147</v>
       </c>
     </row>
     <row r="4">
@@ -7045,13 +7349,13 @@
         <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>636791.773621534</v>
+        <v>676155.905504996</v>
       </c>
       <c r="C4" t="n">
         <v>10.6302718035714</v>
       </c>
       <c r="D4" t="n">
-        <v>30487.6579768992</v>
+        <v>63578.8512158147</v>
       </c>
     </row>
     <row r="5">
@@ -7059,13 +7363,13 @@
         <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>823559.373173227</v>
+        <v>712533.346774185</v>
       </c>
       <c r="C5" t="n">
-        <v>16.7830035450418</v>
+        <v>11.8391833248873</v>
       </c>
       <c r="D5" t="n">
-        <v>30487.6579768992</v>
+        <v>63578.8512158147</v>
       </c>
     </row>
     <row r="6">
@@ -7073,13 +7377,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>678403.142844579</v>
+        <v>731457.165490411</v>
       </c>
       <c r="C6" t="n">
         <v>12.0321942890087</v>
       </c>
       <c r="D6" t="n">
-        <v>79587.9694787194</v>
+        <v>134676.595973802</v>
       </c>
     </row>
     <row r="7">
@@ -7087,13 +7391,13 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>665864.09514929</v>
+        <v>717438.825877237</v>
       </c>
       <c r="C7" t="n">
         <v>11.4904863730785</v>
       </c>
       <c r="D7" t="n">
-        <v>79587.9694787194</v>
+        <v>134676.595973802</v>
       </c>
     </row>
     <row r="8">
@@ -7101,13 +7405,13 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>668391.608264487</v>
+        <v>711516.272217702</v>
       </c>
       <c r="C8" t="n">
         <v>11.109392664028</v>
       </c>
       <c r="D8" t="n">
-        <v>79587.9694787194</v>
+        <v>134676.595973802</v>
       </c>
     </row>
     <row r="9">
@@ -7115,13 +7419,13 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>892558.266970246</v>
+        <v>744785.576661123</v>
       </c>
       <c r="C9" t="n">
-        <v>17.5394364235355</v>
+        <v>11.9079634105527</v>
       </c>
       <c r="D9" t="n">
-        <v>79587.9694787194</v>
+        <v>134676.595973802</v>
       </c>
     </row>
     <row r="10">
@@ -7129,13 +7433,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>754156.400673248</v>
+        <v>764728.981005525</v>
       </c>
       <c r="C10" t="n">
         <v>11.674400046272</v>
       </c>
       <c r="D10" t="n">
-        <v>134991.563382421</v>
+        <v>212293.038933127</v>
       </c>
     </row>
     <row r="11">
@@ -7143,13 +7447,13 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>785826.996730898</v>
+        <v>782996.20634881</v>
       </c>
       <c r="C11" t="n">
         <v>12.1504275607048</v>
       </c>
       <c r="D11" t="n">
-        <v>134991.563382421</v>
+        <v>212293.038933127</v>
       </c>
     </row>
     <row r="12">
@@ -7157,13 +7461,13 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>761276.850646061</v>
+        <v>755002.406598766</v>
       </c>
       <c r="C12" t="n">
         <v>11.3842170717289</v>
       </c>
       <c r="D12" t="n">
-        <v>134991.563382421</v>
+        <v>212293.038933127</v>
       </c>
     </row>
     <row r="13">
@@ -7171,13 +7475,13 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>779211.649198466</v>
+        <v>777717.101269794</v>
       </c>
       <c r="C13" t="n">
         <v>12.5535594110144</v>
       </c>
       <c r="D13" t="n">
-        <v>134991.563382421</v>
+        <v>212293.038933127</v>
       </c>
     </row>
     <row r="14">
@@ -7185,13 +7489,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>762587.445193961</v>
+        <v>750845.239329646</v>
       </c>
       <c r="C14" t="n">
         <v>11.4994898193683</v>
       </c>
       <c r="D14" t="n">
-        <v>447191.848394933</v>
+        <v>350241.505861404</v>
       </c>
     </row>
     <row r="15">
@@ -7199,13 +7503,13 @@
         <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>715696.149139116</v>
+        <v>714689.909093447</v>
       </c>
       <c r="C15" t="n">
         <v>10.9967566373843</v>
       </c>
       <c r="D15" t="n">
-        <v>447191.848394933</v>
+        <v>350241.505861404</v>
       </c>
     </row>
     <row r="16">
@@ -7213,13 +7517,13 @@
         <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>670900.197965107</v>
+        <v>676438.058252245</v>
       </c>
       <c r="C16" t="n">
         <v>10.4086906872325</v>
       </c>
       <c r="D16" t="n">
-        <v>447191.848394933</v>
+        <v>350241.505861404</v>
       </c>
     </row>
     <row r="17">
@@ -7227,13 +7531,13 @@
         <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>669172.542208498</v>
+        <v>676341.950441919</v>
       </c>
       <c r="C17" t="n">
         <v>11.0544000244815</v>
       </c>
       <c r="D17" t="n">
-        <v>447191.848394933</v>
+        <v>350241.505861404</v>
       </c>
     </row>
     <row r="18">
@@ -7241,13 +7545,13 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>647460.666906089</v>
+        <v>647900.764871283</v>
       </c>
       <c r="C18" t="n">
         <v>11.6780608073074</v>
       </c>
       <c r="D18" t="n">
-        <v>303210.120278174</v>
+        <v>204181.88530938</v>
       </c>
     </row>
     <row r="19">
@@ -7255,13 +7559,13 @@
         <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>665745.494580486</v>
+        <v>664884.556285239</v>
       </c>
       <c r="C19" t="n">
         <v>12.4296812997176</v>
       </c>
       <c r="D19" t="n">
-        <v>303210.120278174</v>
+        <v>204181.88530938</v>
       </c>
     </row>
     <row r="20">
@@ -7269,13 +7573,13 @@
         <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>678417.998856183</v>
+        <v>677929.173138198</v>
       </c>
       <c r="C20" t="n">
         <v>12.6150239262401</v>
       </c>
       <c r="D20" t="n">
-        <v>303210.120278174</v>
+        <v>204181.88530938</v>
       </c>
     </row>
     <row r="21">
@@ -7283,13 +7587,13 @@
         <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>723742.722213002</v>
+        <v>724626.110102468</v>
       </c>
       <c r="C21" t="n">
         <v>13.4660006084421</v>
       </c>
       <c r="D21" t="n">
-        <v>303210.120278174</v>
+        <v>204181.88530938</v>
       </c>
     </row>
     <row r="22">
@@ -7297,13 +7601,13 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>661972.145431855</v>
+        <v>659783.686852014</v>
       </c>
       <c r="C22" t="n">
         <v>12.0775521518095</v>
       </c>
       <c r="D22" t="n">
-        <v>6727.6420559343</v>
+        <v>-88897.1808867063</v>
       </c>
     </row>
     <row r="23">
@@ -7311,13 +7615,13 @@
         <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>659132.255236244</v>
+        <v>659259.33278552</v>
       </c>
       <c r="C23" t="n">
         <v>11.5680127038727</v>
       </c>
       <c r="D23" t="n">
-        <v>6727.6420559343</v>
+        <v>-88897.1808867063</v>
       </c>
     </row>
     <row r="24">
@@ -7325,13 +7629,13 @@
         <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>648525.148843145</v>
+        <v>649626.089931033</v>
       </c>
       <c r="C24" t="n">
         <v>11.3841267902576</v>
       </c>
       <c r="D24" t="n">
-        <v>6727.6420559343</v>
+        <v>-88897.1808867063</v>
       </c>
     </row>
     <row r="25">
@@ -7339,13 +7643,13 @@
         <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>617022.303165713</v>
+        <v>617986.357175598</v>
       </c>
       <c r="C25" t="n">
         <v>11.1032267647541</v>
       </c>
       <c r="D25" t="n">
-        <v>6727.6420559343</v>
+        <v>-88897.1808867063</v>
       </c>
     </row>
     <row r="26">
@@ -7353,13 +7657,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>562842.46198249</v>
+        <v>562083.707275632</v>
       </c>
       <c r="C26" t="n">
         <v>10.6826764651649</v>
       </c>
       <c r="D26" t="n">
-        <v>3991.56754346797</v>
+        <v>-93849.1441422715</v>
       </c>
     </row>
     <row r="27">
@@ -7367,13 +7671,13 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>546075.780670582</v>
+        <v>545057.004515308</v>
       </c>
       <c r="C27" t="n">
         <v>10.7360082333431</v>
       </c>
       <c r="D27" t="n">
-        <v>3991.56754346797</v>
+        <v>-93849.1441422715</v>
       </c>
     </row>
     <row r="28">
@@ -7381,13 +7685,13 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>541323.324452278</v>
+        <v>541447.562324723</v>
       </c>
       <c r="C28" t="n">
         <v>10.4602240188359</v>
       </c>
       <c r="D28" t="n">
-        <v>3991.56754346797</v>
+        <v>-93849.1441422715</v>
       </c>
     </row>
     <row r="29">
@@ -7395,13 +7699,13 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>606169.651192378</v>
+        <v>607827.064562988</v>
       </c>
       <c r="C29" t="n">
         <v>11.7092360530319</v>
       </c>
       <c r="D29" t="n">
-        <v>3991.56754346797</v>
+        <v>-93849.1441422715</v>
       </c>
     </row>
     <row r="30">
@@ -7409,13 +7713,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>593691.213910424</v>
+        <v>592336.453697411</v>
       </c>
       <c r="C30" t="n">
         <v>11.1034762928996</v>
       </c>
       <c r="D30" t="n">
-        <v>-247205.593425398</v>
+        <v>-346436.627170084</v>
       </c>
     </row>
     <row r="31">
@@ -7423,13 +7727,13 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>617457.84272464</v>
+        <v>618108.714124519</v>
       </c>
       <c r="C31" t="n">
         <v>10.8385673600201</v>
       </c>
       <c r="D31" t="n">
-        <v>-247205.593425398</v>
+        <v>-346436.627170084</v>
       </c>
     </row>
     <row r="32">
@@ -7437,13 +7741,13 @@
         <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>627377.894242887</v>
+        <v>628413.483232495</v>
       </c>
       <c r="C32" t="n">
         <v>10.6524063288766</v>
       </c>
       <c r="D32" t="n">
-        <v>-247205.593425398</v>
+        <v>-346436.627170084</v>
       </c>
     </row>
     <row r="33">
@@ -7451,13 +7755,13 @@
         <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>629205.290023614</v>
+        <v>628903.474933272</v>
       </c>
       <c r="C33" t="n">
         <v>10.730238444917</v>
       </c>
       <c r="D33" t="n">
-        <v>-247205.593425398</v>
+        <v>-346436.627170084</v>
       </c>
     </row>
     <row r="34">
@@ -7465,13 +7769,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>640230.059149297</v>
+        <v>642873.472948118</v>
       </c>
       <c r="C34" t="n">
         <v>10.4485311832442</v>
       </c>
       <c r="D34" t="n">
-        <v>-27701.4638378476</v>
+        <v>-127076.435400954</v>
       </c>
     </row>
     <row r="35">
@@ -7479,13 +7783,13 @@
         <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>623403.787999823</v>
+        <v>623941.200987158</v>
       </c>
       <c r="C35" t="n">
         <v>10.3921900189467</v>
       </c>
       <c r="D35" t="n">
-        <v>-27701.4638378476</v>
+        <v>-127076.435400954</v>
       </c>
     </row>
     <row r="36">
@@ -7493,13 +7797,13 @@
         <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>622528.384150234</v>
+        <v>621446.994985746</v>
       </c>
       <c r="C36" t="n">
         <v>10.7912219460012</v>
       </c>
       <c r="D36" t="n">
-        <v>-27701.4638378476</v>
+        <v>-127076.435400954</v>
       </c>
     </row>
     <row r="37">
@@ -7507,13 +7811,13 @@
         <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>630720.95799542</v>
+        <v>628629.030781029</v>
       </c>
       <c r="C37" t="n">
         <v>11.4240350359573</v>
       </c>
       <c r="D37" t="n">
-        <v>-27701.4638378476</v>
+        <v>-127076.435400954</v>
       </c>
     </row>
     <row r="38">
@@ -7521,13 +7825,13 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>613386.039033511</v>
+        <v>613131.8629752</v>
       </c>
       <c r="C38" t="n">
         <v>10.8677026257417</v>
       </c>
       <c r="D38" t="n">
-        <v>29796.0411092914</v>
+        <v>-69725.7387088924</v>
       </c>
     </row>
     <row r="39">
@@ -7535,13 +7839,13 @@
         <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>624292.48512622</v>
+        <v>623948.175485824</v>
       </c>
       <c r="C39" t="n">
         <v>11.5009156513608</v>
       </c>
       <c r="D39" t="n">
-        <v>29796.0411092914</v>
+        <v>-69725.7387088924</v>
       </c>
     </row>
     <row r="40">
@@ -7549,13 +7853,13 @@
         <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>612880.742227203</v>
+        <v>613039.236963699</v>
       </c>
       <c r="C40" t="n">
         <v>11.3867900479062</v>
       </c>
       <c r="D40" t="n">
-        <v>29796.0411092914</v>
+        <v>-69725.7387088924</v>
       </c>
     </row>
     <row r="41">
@@ -7563,13 +7867,13 @@
         <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>625348.432770869</v>
+        <v>625790.084444931</v>
       </c>
       <c r="C41" t="n">
         <v>12.0126401313669</v>
       </c>
       <c r="D41" t="n">
-        <v>29796.0411092914</v>
+        <v>-69725.7387088924</v>
       </c>
     </row>
     <row r="42">
@@ -7577,13 +7881,13 @@
         <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>607590.465226608</v>
+        <v>605718.455009423</v>
       </c>
       <c r="C42" t="n">
         <v>12.3098021999499</v>
       </c>
       <c r="D42" t="n">
-        <v>-95419.3102931427</v>
+        <v>-193459.366524935</v>
       </c>
     </row>
     <row r="43">
@@ -7591,13 +7895,13 @@
         <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>585542.454386117</v>
+        <v>584958.465929666</v>
       </c>
       <c r="C43" t="n">
         <v>11.8753902063729</v>
       </c>
       <c r="D43" t="n">
-        <v>-95419.3102931427</v>
+        <v>-193459.366524935</v>
       </c>
     </row>
     <row r="44">
@@ -7605,13 +7909,13 @@
         <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>565734.354774604</v>
+        <v>566596.370280869</v>
       </c>
       <c r="C44" t="n">
         <v>11.5928619498469</v>
       </c>
       <c r="D44" t="n">
-        <v>-95419.3102931427</v>
+        <v>-193459.366524935</v>
       </c>
     </row>
     <row r="45">
@@ -7619,13 +7923,13 @@
         <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>596930.819792528</v>
+        <v>598539.083700847</v>
       </c>
       <c r="C45" t="n">
         <v>13.0321763004354</v>
       </c>
       <c r="D45" t="n">
-        <v>-95419.3102931427</v>
+        <v>-193459.366524935</v>
       </c>
     </row>
     <row r="46">
@@ -7633,13 +7937,13 @@
         <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>548165.494366706</v>
+        <v>546249.365910045</v>
       </c>
       <c r="C46" t="n">
         <v>13.1307509692946</v>
       </c>
       <c r="D46" t="n">
-        <v>-310022.516995444</v>
+        <v>-406400.494937324</v>
       </c>
     </row>
     <row r="47">
@@ -7647,13 +7951,13 @@
         <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>561876.57809383</v>
+        <v>561379.878199387</v>
       </c>
       <c r="C47" t="n">
         <v>13.6021547541288</v>
       </c>
       <c r="D47" t="n">
-        <v>-310022.516995444</v>
+        <v>-406400.494937324</v>
       </c>
     </row>
     <row r="48">
@@ -7661,13 +7965,13 @@
         <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>597614.836494878</v>
+        <v>598318.365041519</v>
       </c>
       <c r="C48" t="n">
         <v>14.2979685244461</v>
       </c>
       <c r="D48" t="n">
-        <v>-310022.516995444</v>
+        <v>-406400.494937324</v>
       </c>
     </row>
     <row r="49">
@@ -7675,13 +7979,13 @@
         <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>651926.882275603</v>
+        <v>653672.181923799</v>
       </c>
       <c r="C49" t="n">
         <v>15.1070118321903</v>
       </c>
       <c r="D49" t="n">
-        <v>-310022.516995444</v>
+        <v>-406400.494937324</v>
       </c>
     </row>
     <row r="50">
@@ -7689,13 +7993,13 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>599125.912881758</v>
+        <v>598276.443349675</v>
       </c>
       <c r="C50" t="n">
         <v>13.1862273837815</v>
       </c>
       <c r="D50" t="n">
-        <v>-533841.993695591</v>
+        <v>-626216.550345229</v>
       </c>
     </row>
     <row r="51">
@@ -7703,13 +8007,13 @@
         <v>68</v>
       </c>
       <c r="B51" t="n">
-        <v>632922.109366266</v>
+        <v>633055.324847973</v>
       </c>
       <c r="C51" t="n">
         <v>13.3740303988291</v>
       </c>
       <c r="D51" t="n">
-        <v>-533841.993695591</v>
+        <v>-626216.550345229</v>
       </c>
     </row>
     <row r="52">
@@ -7717,13 +8021,13 @@
         <v>69</v>
       </c>
       <c r="B52" t="n">
-        <v>664612.425744915</v>
+        <v>665177.177855463</v>
       </c>
       <c r="C52" t="n">
         <v>14.0180411058219</v>
       </c>
       <c r="D52" t="n">
-        <v>-533841.993695591</v>
+        <v>-626216.550345229</v>
       </c>
     </row>
     <row r="53">
@@ -7731,13 +8035,13 @@
         <v>70</v>
       </c>
       <c r="B53" t="n">
-        <v>707569.711176567</v>
+        <v>707779.6320243</v>
       </c>
       <c r="C53" t="n">
         <v>15.5487931329305</v>
       </c>
       <c r="D53" t="n">
-        <v>-533841.993695591</v>
+        <v>-626216.550345229</v>
       </c>
     </row>
     <row r="54">
@@ -7745,13 +8049,13 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>695571.519448965</v>
+        <v>702876.03840554</v>
       </c>
       <c r="C54" t="n">
         <v>14.5171217521173</v>
       </c>
       <c r="D54" t="n">
-        <v>-288860.472919785</v>
+        <v>-381240.926839686</v>
       </c>
     </row>
     <row r="55">
@@ -7759,13 +8063,13 @@
         <v>71</v>
       </c>
       <c r="B55" t="n">
-        <v>700140.877942262</v>
+        <v>704333.976847758</v>
       </c>
       <c r="C55" t="n">
         <v>15.141539685646</v>
       </c>
       <c r="D55" t="n">
-        <v>-288860.472919785</v>
+        <v>-381240.926839686</v>
       </c>
     </row>
     <row r="56">
@@ -7773,13 +8077,13 @@
         <v>72</v>
       </c>
       <c r="B56" t="n">
-        <v>687078.942109366</v>
+        <v>685627.126250412</v>
       </c>
       <c r="C56" t="n">
         <v>15.0038694878606</v>
       </c>
       <c r="D56" t="n">
-        <v>-288860.472919785</v>
+        <v>-381240.926839686</v>
       </c>
     </row>
     <row r="57">
@@ -7787,13 +8091,13 @@
         <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>678111.67923159</v>
+        <v>668099.308605802</v>
       </c>
       <c r="C57" t="n">
         <v>14.8035701452507</v>
       </c>
       <c r="D57" t="n">
-        <v>-288860.472919785</v>
+        <v>-381240.926839686</v>
       </c>
     </row>
     <row r="58">
@@ -7801,13 +8105,13 @@
         <v>17</v>
       </c>
       <c r="B58" t="n">
-        <v>612113.585676092</v>
+        <v>593580.974341072</v>
       </c>
       <c r="C58" t="n">
         <v>12.2879888444748</v>
       </c>
       <c r="D58" t="n">
-        <v>-235900.781616591</v>
+        <v>-326456.987649369</v>
       </c>
     </row>
     <row r="59">
@@ -7815,13 +8119,13 @@
         <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>585814.5533707</v>
+        <v>637219.383313305</v>
       </c>
       <c r="C59" t="n">
-        <v>11.4417789282922</v>
+        <v>13.8584959000154</v>
       </c>
       <c r="D59" t="n">
-        <v>-235900.781616591</v>
+        <v>-326456.987649369</v>
       </c>
     </row>
     <row r="60">
@@ -7829,13 +8133,13 @@
         <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>683804.988722171</v>
+        <v>662761.246586738</v>
       </c>
       <c r="C60" t="n">
         <v>14.7035540955499</v>
       </c>
       <c r="D60" t="n">
-        <v>-235900.781616591</v>
+        <v>-326456.987649369</v>
       </c>
     </row>
     <row r="61">
@@ -7843,13 +8147,13 @@
         <v>76</v>
       </c>
       <c r="B61" t="n">
-        <v>744561.441099262</v>
+        <v>732760.807039469</v>
       </c>
       <c r="C61" t="n">
         <v>16.8731302711282</v>
       </c>
       <c r="D61" t="n">
-        <v>-235900.781616591</v>
+        <v>-326456.987649369</v>
       </c>
     </row>
     <row r="62">
@@ -7857,13 +8161,13 @@
         <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>760830.557333513</v>
+        <v>751524.348189341</v>
       </c>
       <c r="C62" t="n">
         <v>17.7460496788563</v>
       </c>
       <c r="D62" t="n">
-        <v>-241305.920621413</v>
+        <v>-407880.260841246</v>
       </c>
     </row>
     <row r="63">
@@ -7871,13 +8175,13 @@
         <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>786077.445737153</v>
+        <v>787226.357876606</v>
       </c>
       <c r="C63" t="n">
         <v>18.8053918495146</v>
       </c>
       <c r="D63" t="n">
-        <v>-241305.920621413</v>
+        <v>-407880.260841246</v>
       </c>
     </row>
     <row r="64">
@@ -7885,13 +8189,13 @@
         <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>766983.583057782</v>
+        <v>772663.739728798</v>
       </c>
       <c r="C64" t="n">
         <v>18.3636489423627</v>
       </c>
       <c r="D64" t="n">
-        <v>-241305.920621413</v>
+        <v>-407880.260841246</v>
       </c>
     </row>
     <row r="65">
@@ -7899,13 +8203,13 @@
         <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>804416.62788321</v>
+        <v>806929.95742476</v>
       </c>
       <c r="C65" t="n">
         <v>19.6682156225902</v>
       </c>
       <c r="D65" t="n">
-        <v>-241305.920621413</v>
+        <v>-407880.260841246</v>
       </c>
     </row>
     <row r="66">
@@ -7913,13 +8217,13 @@
         <v>19</v>
       </c>
       <c r="B66" t="n">
-        <v>789075.653602755</v>
+        <v>795824.894167874</v>
       </c>
       <c r="C66" t="n">
         <v>19.7741220150292</v>
       </c>
       <c r="D66" t="n">
-        <v>-348052.615180074</v>
+        <v>-430349.625471695</v>
       </c>
     </row>
     <row r="67">
@@ -7927,13 +8231,13 @@
         <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>822434.123597553</v>
+        <v>822570.677800875</v>
       </c>
       <c r="C67" t="n">
         <v>20.7290921575287</v>
       </c>
       <c r="D67" t="n">
-        <v>-348052.615180074</v>
+        <v>-430349.625471695</v>
       </c>
     </row>
     <row r="68">
@@ -7941,13 +8245,13 @@
         <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>837195.911093961</v>
+        <v>834233.154921796</v>
       </c>
       <c r="C68" t="n">
         <v>20.9404842135894</v>
       </c>
       <c r="D68" t="n">
-        <v>-348052.615180074</v>
+        <v>-430349.625471695</v>
       </c>
     </row>
     <row r="69">
@@ -7955,13 +8259,13 @@
         <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>909311.197446033</v>
+        <v>905426.593798378</v>
       </c>
       <c r="C69" t="n">
         <v>22.8534844520553</v>
       </c>
       <c r="D69" t="n">
-        <v>-348052.615180074</v>
+        <v>-430349.625471695</v>
       </c>
     </row>
     <row r="70">
@@ -7969,13 +8273,13 @@
         <v>20</v>
       </c>
       <c r="B70" t="n">
-        <v>899373.898177799</v>
+        <v>898430.634224446</v>
       </c>
       <c r="C70" t="n">
         <v>22.3133969774475</v>
       </c>
       <c r="D70" t="n">
-        <v>-410067.723236129</v>
+        <v>-487057.614300203</v>
       </c>
     </row>
     <row r="71">
@@ -7983,13 +8287,13 @@
         <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>951994.890675094</v>
+        <v>952153.881849032</v>
       </c>
       <c r="C71" t="n">
         <v>23.8861437806652</v>
       </c>
       <c r="D71" t="n">
-        <v>-410067.723236129</v>
+        <v>-487057.614300203</v>
       </c>
     </row>
     <row r="72">
@@ -7997,13 +8301,13 @@
         <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>956193.496371793</v>
+        <v>956801.398424989</v>
       </c>
       <c r="C72" t="n">
         <v>24.3321737490058</v>
       </c>
       <c r="D72" t="n">
-        <v>-410067.723236129</v>
+        <v>-487057.614300203</v>
       </c>
     </row>
     <row r="73">
@@ -8011,13 +8315,13 @@
         <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>922367.021851397</v>
+        <v>922587.608840479</v>
       </c>
       <c r="C73" t="n">
         <v>23.986224085695</v>
       </c>
       <c r="D73" t="n">
-        <v>-410067.723236129</v>
+        <v>-487057.614300203</v>
       </c>
     </row>
     <row r="74">
@@ -8025,13 +8329,13 @@
         <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>882789.213051882</v>
+        <v>883867.63264324</v>
       </c>
       <c r="C74" t="n">
         <v>23.5946112709356</v>
       </c>
       <c r="D74" t="n">
-        <v>-355623.278079218</v>
+        <v>-427029.119560415</v>
       </c>
     </row>
     <row r="75">
@@ -8039,13 +8343,13 @@
         <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>932703.998539813</v>
+        <v>931950.160163147</v>
       </c>
       <c r="C75" t="n">
         <v>25.3768812999164</v>
       </c>
       <c r="D75" t="n">
-        <v>-355623.278079218</v>
+        <v>-427029.119560415</v>
       </c>
     </row>
     <row r="76">
@@ -8053,13 +8357,13 @@
         <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>954561.521393069</v>
+        <v>954002.005438432</v>
       </c>
       <c r="C76" t="n">
         <v>25.2558385830737</v>
       </c>
       <c r="D76" t="n">
-        <v>-355623.278079218</v>
+        <v>-427029.119560415</v>
       </c>
     </row>
     <row r="77">
@@ -8067,13 +8371,13 @@
         <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>1027293.81193504</v>
+        <v>1027566.83696953</v>
       </c>
       <c r="C77" t="n">
         <v>25.7726688460743</v>
       </c>
       <c r="D77" t="n">
-        <v>-355623.278079218</v>
+        <v>-427029.119560415</v>
       </c>
     </row>
     <row r="78">
@@ -8081,13 +8385,13 @@
         <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>1064553.9252181</v>
+        <v>1065424.99489931</v>
       </c>
       <c r="C78" t="n">
         <v>24.7004974443542</v>
       </c>
       <c r="D78" t="n">
-        <v>-458482.881768742</v>
+        <v>-526893.631355654</v>
       </c>
     </row>
     <row r="79">
@@ -8095,13 +8399,13 @@
         <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>1104119.83344129</v>
+        <v>1105530.63957693</v>
       </c>
       <c r="C79" t="n">
         <v>24.6273390228042</v>
       </c>
       <c r="D79" t="n">
-        <v>-458482.881768742</v>
+        <v>-526893.631355654</v>
       </c>
     </row>
     <row r="80">
@@ -8109,13 +8413,13 @@
         <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>1088029.11961751</v>
+        <v>1088549.37417088</v>
       </c>
       <c r="C80" t="n">
         <v>24.2401476701082</v>
       </c>
       <c r="D80" t="n">
-        <v>-458482.881768742</v>
+        <v>-526893.631355654</v>
       </c>
     </row>
     <row r="81">
@@ -8123,13 +8427,13 @@
         <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>1070477.72295174</v>
+        <v>1067723.86742489</v>
       </c>
       <c r="C81" t="n">
         <v>25.2837403703537</v>
       </c>
       <c r="D81" t="n">
-        <v>-458482.881768742</v>
+        <v>-526893.631355654</v>
       </c>
     </row>
     <row r="82">
@@ -8137,13 +8441,13 @@
         <v>23</v>
       </c>
       <c r="B82" t="n">
-        <v>1247996.74141951</v>
+        <v>1252332.14537577</v>
       </c>
       <c r="C82" t="n">
         <v>31.0449181214106</v>
       </c>
       <c r="D82" t="n">
-        <v>107015.821010467</v>
+        <v>37977.7178854998</v>
       </c>
     </row>
     <row r="83">
@@ -8151,13 +8455,13 @@
         <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>1169209.42149064</v>
+        <v>1170574.94034297</v>
       </c>
       <c r="C83" t="n">
         <v>29.834420842916</v>
       </c>
       <c r="D83" t="n">
-        <v>107015.821010467</v>
+        <v>37977.7178854998</v>
       </c>
     </row>
     <row r="84">
@@ -8165,13 +8469,13 @@
         <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>1182088.53713974</v>
+        <v>1180508.19618333</v>
       </c>
       <c r="C84" t="n">
         <v>29.814654831921</v>
       </c>
       <c r="D84" t="n">
-        <v>107015.821010467</v>
+        <v>37977.7178854998</v>
       </c>
     </row>
     <row r="85">
@@ -8179,13 +8483,13 @@
         <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>1265470.58745219</v>
+        <v>1261340.66386261</v>
       </c>
       <c r="C85" t="n">
         <v>30.3042694857745</v>
       </c>
       <c r="D85" t="n">
-        <v>107015.821010467</v>
+        <v>37977.7178854998</v>
       </c>
     </row>
     <row r="86">
@@ -8193,13 +8497,13 @@
         <v>24</v>
       </c>
       <c r="B86" t="n">
-        <v>1386392.12563957</v>
+        <v>1378683.93928066</v>
       </c>
       <c r="C86" t="n">
         <v>31.0501759850984</v>
       </c>
       <c r="D86" t="n">
-        <v>-43295.0942694144</v>
+        <v>-100233.566645492</v>
       </c>
     </row>
     <row r="87">
@@ -8207,13 +8511,13 @@
         <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>1355005.04457213</v>
+        <v>1351204.59864253</v>
       </c>
       <c r="C87" t="n">
         <v>27.7009529705329</v>
       </c>
       <c r="D87" t="n">
-        <v>-43295.0942694144</v>
+        <v>-100233.566645492</v>
       </c>
     </row>
     <row r="88">
@@ -8221,13 +8525,13 @@
         <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>1432800.20173758</v>
+        <v>1433789.28709953</v>
       </c>
       <c r="C88" t="n">
         <v>29.4833523390985</v>
       </c>
       <c r="D88" t="n">
-        <v>-43295.0942694144</v>
+        <v>-100233.566645492</v>
       </c>
     </row>
     <row r="89">
@@ -8235,13 +8539,13 @@
         <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>1400105.3416369</v>
+        <v>1410629.63776472</v>
       </c>
       <c r="C89" t="n">
         <v>29.3251120735627</v>
       </c>
       <c r="D89" t="n">
-        <v>-43295.0942694144</v>
+        <v>-100233.566645492</v>
       </c>
     </row>
     <row r="90">
@@ -8249,13 +8553,13 @@
         <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>1626508.47281018</v>
+        <v>1477116.0055968</v>
       </c>
       <c r="C90" t="n">
-        <v>34.7358344637944</v>
+        <v>28.479823376783</v>
       </c>
       <c r="D90" t="n">
-        <v>773051.12821983</v>
+        <v>714233.95883167</v>
       </c>
     </row>
     <row r="91">
@@ -8263,13 +8567,13 @@
         <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>1389323.83020727</v>
+        <v>1441027.16848931</v>
       </c>
       <c r="C91" t="n">
         <v>29.138496779862</v>
       </c>
       <c r="D91" t="n">
-        <v>773051.12821983</v>
+        <v>714233.95883167</v>
       </c>
     </row>
     <row r="92">
@@ -8277,13 +8581,13 @@
         <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>1447407.28914572</v>
+        <v>1498373.051867</v>
       </c>
       <c r="C92" t="n">
         <v>32.5750274467005</v>
       </c>
       <c r="D92" t="n">
-        <v>773051.12821983</v>
+        <v>714233.95883167</v>
       </c>
     </row>
     <row r="93">
@@ -8291,13 +8595,13 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>1382916.55107744</v>
+        <v>1429561.59176246</v>
       </c>
       <c r="C93" t="n">
         <v>31.5931577173902</v>
       </c>
       <c r="D93" t="n">
-        <v>773051.12821983</v>
+        <v>714233.95883167</v>
       </c>
     </row>
     <row r="94">
@@ -8305,13 +8609,13 @@
         <v>26</v>
       </c>
       <c r="B94" t="n">
-        <v>1560795.10311679</v>
+        <v>1384200.25074301</v>
       </c>
       <c r="C94" t="n">
-        <v>38.2311293341669</v>
+        <v>30.1923639075973</v>
       </c>
       <c r="D94" t="n">
-        <v>719293.857630726</v>
+        <v>857104.6383213</v>
       </c>
     </row>
     <row r="95">
@@ -8319,13 +8623,13 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>1299607.39975372</v>
+        <v>1364511.98792486</v>
       </c>
       <c r="C95" t="n">
         <v>30.2889527827546</v>
       </c>
       <c r="D95" t="n">
-        <v>719293.857630726</v>
+        <v>857104.6383213</v>
       </c>
     </row>
     <row r="96">
@@ -8333,13 +8637,13 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>1448652.64800014</v>
+        <v>1505338.52151823</v>
       </c>
       <c r="C96" t="n">
         <v>35.3985120379008</v>
       </c>
       <c r="D96" t="n">
-        <v>719293.857630726</v>
+        <v>857104.6383213</v>
       </c>
     </row>
     <row r="97">
@@ -8347,13 +8651,13 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>1390431.84121628</v>
+        <v>1445343.22591388</v>
       </c>
       <c r="C97" t="n">
         <v>33.6796690256528</v>
       </c>
       <c r="D97" t="n">
-        <v>719293.857630726</v>
+        <v>857104.6383213</v>
       </c>
     </row>
     <row r="98">
@@ -8361,13 +8665,13 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>1549107.85369471</v>
+        <v>1402345.93898177</v>
       </c>
       <c r="C98" t="n">
-        <v>39.1362773341729</v>
+        <v>32.3982006505089</v>
       </c>
       <c r="D98" t="n">
-        <v>275812.646975531</v>
+        <v>123787.704558611</v>
       </c>
     </row>
     <row r="99">
@@ -8375,13 +8679,13 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>1364696.29081388</v>
+        <v>1390296.39445671</v>
       </c>
       <c r="C99" t="n">
-        <v>33.1992194715954</v>
+        <v>32.0587267089522</v>
       </c>
       <c r="D99" t="n">
-        <v>275812.646975531</v>
+        <v>121597.069884908</v>
       </c>
     </row>
     <row r="100">
@@ -8389,13 +8693,13 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>1481229.94590446</v>
+        <v>1466091.49027672</v>
       </c>
       <c r="C100" t="n">
-        <v>36.9509747433487</v>
+        <v>34.653413947547</v>
       </c>
       <c r="D100" t="n">
-        <v>275812.646975531</v>
+        <v>117215.800537502</v>
       </c>
     </row>
     <row r="101">
@@ -8403,13 +8707,13 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>1444258.90980768</v>
+        <v>1435608.10941541</v>
       </c>
       <c r="C101" t="n">
-        <v>35.7607067519221</v>
+        <v>33.8206482777534</v>
       </c>
       <c r="D101" t="n">
-        <v>275812.646975531</v>
+        <v>110643.896516393</v>
       </c>
     </row>
     <row r="102">
@@ -8417,13 +8721,13 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>1606719.08927676</v>
+        <v>1415652.28932858</v>
       </c>
       <c r="C102" t="n">
-        <v>40.9910484441941</v>
+        <v>33.3882836145914</v>
       </c>
       <c r="D102" t="n">
-        <v>275812.646975531</v>
+        <v>101881.357821581</v>
       </c>
     </row>
     <row r="103">
@@ -8431,13 +8735,13 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>1420736.79025351</v>
+        <v>1413906.61356913</v>
       </c>
       <c r="C103" t="n">
-        <v>35.0034213482197</v>
+        <v>33.5267186746289</v>
       </c>
       <c r="D103" t="n">
-        <v>275812.646975531</v>
+        <v>94145.5102456175</v>
       </c>
     </row>
     <row r="104">
@@ -8445,13 +8749,13 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>1539424.95273022</v>
+        <v>1460327.8415124</v>
       </c>
       <c r="C104" t="n">
-        <v>38.8245401393586</v>
+        <v>35.2176672558322</v>
       </c>
       <c r="D104" t="n">
-        <v>275812.646975531</v>
+        <v>87436.3537885034</v>
       </c>
     </row>
     <row r="105">
@@ -8459,13 +8763,13 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>1500517.82504617</v>
+        <v>1449047.25552048</v>
       </c>
       <c r="C105" t="n">
-        <v>37.5719404394353</v>
+        <v>34.9917026563353</v>
       </c>
       <c r="D105" t="n">
-        <v>275812.646975531</v>
+        <v>81753.8884502383</v>
       </c>
     </row>
     <row r="106">
@@ -8473,13 +8777,13 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>1644636.83939836</v>
+        <v>1442397.3849168</v>
       </c>
       <c r="C106" t="n">
-        <v>42.2117955219471</v>
+        <v>34.8915259350971</v>
       </c>
       <c r="D106" t="n">
-        <v>275812.646975531</v>
+        <v>77098.1142308221</v>
       </c>
     </row>
     <row r="107">
@@ -8487,13 +8791,13 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>1483616.25334697</v>
+        <v>1443039.92450611</v>
       </c>
       <c r="C107" t="n">
-        <v>37.0278009745391</v>
+        <v>35.0268103188282</v>
       </c>
       <c r="D107" t="n">
-        <v>275812.646975531</v>
+        <v>72581.4708134966</v>
       </c>
     </row>
     <row r="108">
@@ -8501,13 +8805,13 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>1585899.58816701</v>
+        <v>1468096.87895815</v>
       </c>
       <c r="C108" t="n">
-        <v>40.3207727801974</v>
+        <v>35.9586615006559</v>
       </c>
       <c r="D108" t="n">
-        <v>275812.646975531</v>
+        <v>68203.9581982619</v>
       </c>
     </row>
     <row r="109">
@@ -8515,13 +8819,13 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>1552877.19607123</v>
+        <v>1461760.39174653</v>
       </c>
       <c r="C109" t="n">
-        <v>39.2576298320512</v>
+        <v>35.8581986560403</v>
       </c>
       <c r="D109" t="n">
-        <v>275812.646975531</v>
+        <v>63965.5763851178</v>
       </c>
     </row>
     <row r="110">
@@ -8529,13 +8833,13 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>1685717.39477095</v>
+        <v>1458245.31108402</v>
       </c>
       <c r="C110" t="n">
-        <v>43.5343678729635</v>
+        <v>35.8466775311375</v>
       </c>
       <c r="D110" t="n">
-        <v>275812.646975531</v>
+        <v>59866.3253740644</v>
       </c>
     </row>
     <row r="111">
@@ -8543,13 +8847,13 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>1535455.47186353</v>
+        <v>1459751.63215467</v>
       </c>
       <c r="C111" t="n">
-        <v>38.6967442613681</v>
+        <v>35.9930318942885</v>
       </c>
       <c r="D111" t="n">
-        <v>275812.646975531</v>
+        <v>56031.2461196821</v>
       </c>
     </row>
     <row r="112">
@@ -8557,13 +8861,13 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>1631130.92571127</v>
+        <v>1475392.7508936</v>
       </c>
       <c r="C112" t="n">
-        <v>41.7769779335347</v>
+        <v>36.595917098155</v>
       </c>
       <c r="D112" t="n">
-        <v>275812.646975531</v>
+        <v>52460.3386219708</v>
       </c>
     </row>
     <row r="113">
@@ -8571,13 +8875,13 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>1599999.29509802</v>
+        <v>1474876.45147858</v>
       </c>
       <c r="C113" t="n">
-        <v>40.7747073089606</v>
+        <v>36.6626260921818</v>
       </c>
       <c r="D113" t="n">
-        <v>275812.646975531</v>
+        <v>49153.6028809307</v>
       </c>
     </row>
     <row r="114">
@@ -8585,13 +8889,13 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>1720123.28294889</v>
+        <v>1476190.40032509</v>
       </c>
       <c r="C114" t="n">
-        <v>44.6420519342811</v>
+        <v>36.7826331947376</v>
       </c>
       <c r="D114" t="n">
-        <v>275812.646975531</v>
+        <v>46111.0388965616</v>
       </c>
     </row>
     <row r="115">
@@ -8599,13 +8903,13 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>1585069.63657207</v>
+        <v>1480074.71295515</v>
       </c>
       <c r="C115" t="n">
-        <v>40.294052814457</v>
+        <v>36.9826465741702</v>
       </c>
       <c r="D115" t="n">
-        <v>275812.646975531</v>
+        <v>43235.6208293725</v>
       </c>
     </row>
     <row r="116">
@@ -8613,13 +8917,13 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>1670961.65256165</v>
+        <v>1491253.51344218</v>
       </c>
       <c r="C116" t="n">
-        <v>43.0593125459907</v>
+        <v>37.4174806323997</v>
       </c>
       <c r="D116" t="n">
-        <v>275812.646975531</v>
+        <v>40527.3486793632</v>
       </c>
     </row>
     <row r="117">
@@ -8627,13 +8931,237 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>1643120.37290762</v>
+        <v>1493438.51628583</v>
       </c>
       <c r="C117" t="n">
-        <v>42.1629734786788</v>
+        <v>37.5533515104801</v>
       </c>
       <c r="D117" t="n">
-        <v>275812.646975531</v>
+        <v>37986.222446534</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1496377.81349675</v>
+      </c>
+      <c r="C118" t="n">
+        <v>37.7097142038858</v>
+      </c>
+      <c r="D118" t="n">
+        <v>35612.2421308846</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1500618.38992596</v>
+      </c>
+      <c r="C119" t="n">
+        <v>37.9053379471732</v>
+      </c>
+      <c r="D119" t="n">
+        <v>33372.0362214456</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1508823.48155977</v>
+      </c>
+      <c r="C120" t="n">
+        <v>38.2274997212144</v>
+      </c>
+      <c r="D120" t="n">
+        <v>31265.6047182168</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1512327.60798714</v>
+      </c>
+      <c r="C121" t="n">
+        <v>38.392222825495</v>
+      </c>
+      <c r="D121" t="n">
+        <v>29292.9476211983</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1516392.89563788</v>
+      </c>
+      <c r="C122" t="n">
+        <v>38.5719525521792</v>
+      </c>
+      <c r="D122" t="n">
+        <v>27454.0649303901</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1521296.89354375</v>
+      </c>
+      <c r="C123" t="n">
+        <v>38.7761602246136</v>
+      </c>
+      <c r="D123" t="n">
+        <v>25734.0989790636</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1528425.87115986</v>
+      </c>
+      <c r="C124" t="n">
+        <v>39.0502753178193</v>
+      </c>
+      <c r="D124" t="n">
+        <v>24133.0497672188</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1533078.14405253</v>
+      </c>
+      <c r="C125" t="n">
+        <v>39.2402187999366</v>
+      </c>
+      <c r="D125" t="n">
+        <v>22650.9172948557</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1538043.50044159</v>
+      </c>
+      <c r="C126" t="n">
+        <v>39.4374148986159</v>
+      </c>
+      <c r="D126" t="n">
+        <v>21287.7015619743</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1543382.08883392</v>
+      </c>
+      <c r="C127" t="n">
+        <v>39.6463869327197</v>
+      </c>
+      <c r="D127" t="n">
+        <v>19942.4871674246</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1549839.34139118</v>
+      </c>
+      <c r="C128" t="n">
+        <v>39.8915634804329</v>
+      </c>
+      <c r="D128" t="n">
+        <v>18615.2741112067</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1554903.28468108</v>
+      </c>
+      <c r="C129" t="n">
+        <v>40.0906245902641</v>
+      </c>
+      <c r="D129" t="n">
+        <v>17306.0623933203</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1560089.4301335</v>
+      </c>
+      <c r="C130" t="n">
+        <v>40.2932351295995</v>
+      </c>
+      <c r="D130" t="n">
+        <v>16014.8520137657</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1565722.09201093</v>
+      </c>
+      <c r="C131" t="n">
+        <v>40.5023146656911</v>
+      </c>
+      <c r="D131" t="n">
+        <v>15046.4442290998</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1572210.44742349</v>
+      </c>
+      <c r="C132" t="n">
+        <v>40.7312723530407</v>
+      </c>
+      <c r="D132" t="n">
+        <v>14400.8390393225</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1578207.47849337</v>
+      </c>
+      <c r="C133" t="n">
+        <v>40.9359650311612</v>
+      </c>
+      <c r="D133" t="n">
+        <v>14078.0364444338</v>
       </c>
     </row>
   </sheetData>
@@ -8655,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2">
@@ -8663,7 +9191,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>668561.866214131</v>
+        <v>703612.744327803</v>
       </c>
     </row>
     <row r="3">
@@ -8671,7 +9199,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>651013.809903779</v>
+        <v>687624.826305687</v>
       </c>
     </row>
     <row r="4">
@@ -8679,7 +9207,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>636791.773621534</v>
+        <v>676155.905504996</v>
       </c>
     </row>
     <row r="5">
@@ -8687,7 +9215,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>823559.373173227</v>
+        <v>712533.346774185</v>
       </c>
     </row>
     <row r="6">
@@ -8695,7 +9223,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>678403.142844579</v>
+        <v>731457.165490411</v>
       </c>
     </row>
     <row r="7">
@@ -8703,7 +9231,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>665864.09514929</v>
+        <v>717438.825877237</v>
       </c>
     </row>
     <row r="8">
@@ -8711,7 +9239,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>668391.608264487</v>
+        <v>711516.272217702</v>
       </c>
     </row>
     <row r="9">
@@ -8719,7 +9247,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>892558.266970246</v>
+        <v>744785.576661123</v>
       </c>
     </row>
     <row r="10">
@@ -8727,7 +9255,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>754156.400673248</v>
+        <v>764728.981005525</v>
       </c>
     </row>
     <row r="11">
@@ -8735,7 +9263,7 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>785826.996730898</v>
+        <v>782996.20634881</v>
       </c>
     </row>
     <row r="12">
@@ -8743,7 +9271,7 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>761276.850646061</v>
+        <v>755002.406598766</v>
       </c>
     </row>
     <row r="13">
@@ -8751,7 +9279,7 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>779211.649198466</v>
+        <v>777717.101269794</v>
       </c>
     </row>
     <row r="14">
@@ -8759,7 +9287,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>762587.445193961</v>
+        <v>750845.239329646</v>
       </c>
     </row>
     <row r="15">
@@ -8767,7 +9295,7 @@
         <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>715696.149139116</v>
+        <v>714689.909093447</v>
       </c>
     </row>
     <row r="16">
@@ -8775,7 +9303,7 @@
         <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>670900.197965107</v>
+        <v>676438.058252245</v>
       </c>
     </row>
     <row r="17">
@@ -8783,7 +9311,7 @@
         <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>669172.542208498</v>
+        <v>676341.950441919</v>
       </c>
     </row>
     <row r="18">
@@ -8791,7 +9319,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>647460.666906089</v>
+        <v>647900.764871283</v>
       </c>
     </row>
     <row r="19">
@@ -8799,7 +9327,7 @@
         <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>665745.494580486</v>
+        <v>664884.556285239</v>
       </c>
     </row>
     <row r="20">
@@ -8807,7 +9335,7 @@
         <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>678417.998856183</v>
+        <v>677929.173138198</v>
       </c>
     </row>
     <row r="21">
@@ -8815,7 +9343,7 @@
         <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>723742.722213002</v>
+        <v>724626.110102468</v>
       </c>
     </row>
     <row r="22">
@@ -8823,7 +9351,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>661972.145431855</v>
+        <v>659783.686852014</v>
       </c>
     </row>
     <row r="23">
@@ -8831,7 +9359,7 @@
         <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>659132.255236244</v>
+        <v>659259.33278552</v>
       </c>
     </row>
     <row r="24">
@@ -8839,7 +9367,7 @@
         <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>648525.148843145</v>
+        <v>649626.089931033</v>
       </c>
     </row>
     <row r="25">
@@ -8847,7 +9375,7 @@
         <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>617022.303165713</v>
+        <v>617986.357175598</v>
       </c>
     </row>
     <row r="26">
@@ -8855,7 +9383,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>562842.46198249</v>
+        <v>562083.707275632</v>
       </c>
     </row>
     <row r="27">
@@ -8863,7 +9391,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>546075.780670582</v>
+        <v>545057.004515308</v>
       </c>
     </row>
     <row r="28">
@@ -8871,7 +9399,7 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>541323.324452278</v>
+        <v>541447.562324723</v>
       </c>
     </row>
     <row r="29">
@@ -8879,7 +9407,7 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>606169.651192378</v>
+        <v>607827.064562988</v>
       </c>
     </row>
     <row r="30">
@@ -8887,7 +9415,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>593691.213910424</v>
+        <v>592336.453697411</v>
       </c>
     </row>
     <row r="31">
@@ -8895,7 +9423,7 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>617457.84272464</v>
+        <v>618108.714124519</v>
       </c>
     </row>
     <row r="32">
@@ -8903,7 +9431,7 @@
         <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>627377.894242887</v>
+        <v>628413.483232495</v>
       </c>
     </row>
     <row r="33">
@@ -8911,7 +9439,7 @@
         <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>629205.290023614</v>
+        <v>628903.474933272</v>
       </c>
     </row>
     <row r="34">
@@ -8919,7 +9447,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>640230.059149297</v>
+        <v>642873.472948118</v>
       </c>
     </row>
     <row r="35">
@@ -8927,7 +9455,7 @@
         <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>623403.787999823</v>
+        <v>623941.200987158</v>
       </c>
     </row>
     <row r="36">
@@ -8935,7 +9463,7 @@
         <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>622528.384150234</v>
+        <v>621446.994985746</v>
       </c>
     </row>
     <row r="37">
@@ -8943,7 +9471,7 @@
         <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>630720.95799542</v>
+        <v>628629.030781029</v>
       </c>
     </row>
     <row r="38">
@@ -8951,7 +9479,7 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>613386.039033511</v>
+        <v>613131.8629752</v>
       </c>
     </row>
     <row r="39">
@@ -8959,7 +9487,7 @@
         <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>624292.48512622</v>
+        <v>623948.175485824</v>
       </c>
     </row>
     <row r="40">
@@ -8967,7 +9495,7 @@
         <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>612880.742227203</v>
+        <v>613039.236963699</v>
       </c>
     </row>
     <row r="41">
@@ -8975,7 +9503,7 @@
         <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>625348.432770869</v>
+        <v>625790.084444931</v>
       </c>
     </row>
     <row r="42">
@@ -8983,7 +9511,7 @@
         <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>607590.465226608</v>
+        <v>605718.455009423</v>
       </c>
     </row>
     <row r="43">
@@ -8991,7 +9519,7 @@
         <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>585542.454386117</v>
+        <v>584958.465929666</v>
       </c>
     </row>
     <row r="44">
@@ -8999,7 +9527,7 @@
         <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>565734.354774604</v>
+        <v>566596.370280869</v>
       </c>
     </row>
     <row r="45">
@@ -9007,7 +9535,7 @@
         <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>596930.819792528</v>
+        <v>598539.083700847</v>
       </c>
     </row>
     <row r="46">
@@ -9015,7 +9543,7 @@
         <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>548165.494366706</v>
+        <v>546249.365910045</v>
       </c>
     </row>
     <row r="47">
@@ -9023,7 +9551,7 @@
         <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>561876.57809383</v>
+        <v>561379.878199387</v>
       </c>
     </row>
     <row r="48">
@@ -9031,7 +9559,7 @@
         <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>597614.836494878</v>
+        <v>598318.365041519</v>
       </c>
     </row>
     <row r="49">
@@ -9039,7 +9567,7 @@
         <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>651926.882275603</v>
+        <v>653672.181923799</v>
       </c>
     </row>
     <row r="50">
@@ -9047,7 +9575,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>599125.912881758</v>
+        <v>598276.443349675</v>
       </c>
     </row>
     <row r="51">
@@ -9055,7 +9583,7 @@
         <v>68</v>
       </c>
       <c r="B51" t="n">
-        <v>632922.109366266</v>
+        <v>633055.324847973</v>
       </c>
     </row>
     <row r="52">
@@ -9063,7 +9591,7 @@
         <v>69</v>
       </c>
       <c r="B52" t="n">
-        <v>664612.425744915</v>
+        <v>665177.177855463</v>
       </c>
     </row>
     <row r="53">
@@ -9071,7 +9599,7 @@
         <v>70</v>
       </c>
       <c r="B53" t="n">
-        <v>707569.711176567</v>
+        <v>707779.6320243</v>
       </c>
     </row>
     <row r="54">
@@ -9079,7 +9607,7 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>695571.519448965</v>
+        <v>702876.03840554</v>
       </c>
     </row>
     <row r="55">
@@ -9087,7 +9615,7 @@
         <v>71</v>
       </c>
       <c r="B55" t="n">
-        <v>700140.877942262</v>
+        <v>704333.976847758</v>
       </c>
     </row>
     <row r="56">
@@ -9095,7 +9623,7 @@
         <v>72</v>
       </c>
       <c r="B56" t="n">
-        <v>687078.942109366</v>
+        <v>685627.126250412</v>
       </c>
     </row>
     <row r="57">
@@ -9103,7 +9631,7 @@
         <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>678111.67923159</v>
+        <v>668099.308605802</v>
       </c>
     </row>
     <row r="58">
@@ -9111,7 +9639,7 @@
         <v>17</v>
       </c>
       <c r="B58" t="n">
-        <v>612113.585676092</v>
+        <v>593580.974341072</v>
       </c>
     </row>
     <row r="59">
@@ -9119,7 +9647,7 @@
         <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>585814.5533707</v>
+        <v>637219.383313305</v>
       </c>
     </row>
     <row r="60">
@@ -9127,7 +9655,7 @@
         <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>683804.988722171</v>
+        <v>662761.246586738</v>
       </c>
     </row>
     <row r="61">
@@ -9135,7 +9663,7 @@
         <v>76</v>
       </c>
       <c r="B61" t="n">
-        <v>744561.441099262</v>
+        <v>732760.807039469</v>
       </c>
     </row>
     <row r="62">
@@ -9143,7 +9671,7 @@
         <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>760830.557333513</v>
+        <v>751524.348189341</v>
       </c>
     </row>
     <row r="63">
@@ -9151,7 +9679,7 @@
         <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>786077.445737153</v>
+        <v>787226.357876606</v>
       </c>
     </row>
     <row r="64">
@@ -9159,7 +9687,7 @@
         <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>766983.583057782</v>
+        <v>772663.739728798</v>
       </c>
     </row>
     <row r="65">
@@ -9167,7 +9695,7 @@
         <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>804416.62788321</v>
+        <v>806929.95742476</v>
       </c>
     </row>
     <row r="66">
@@ -9175,7 +9703,7 @@
         <v>19</v>
       </c>
       <c r="B66" t="n">
-        <v>789075.653602755</v>
+        <v>795824.894167874</v>
       </c>
     </row>
     <row r="67">
@@ -9183,7 +9711,7 @@
         <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>822434.123597553</v>
+        <v>822570.677800875</v>
       </c>
     </row>
     <row r="68">
@@ -9191,7 +9719,7 @@
         <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>837195.911093961</v>
+        <v>834233.154921796</v>
       </c>
     </row>
     <row r="69">
@@ -9199,7 +9727,7 @@
         <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>909311.197446033</v>
+        <v>905426.593798378</v>
       </c>
     </row>
     <row r="70">
@@ -9207,7 +9735,7 @@
         <v>20</v>
       </c>
       <c r="B70" t="n">
-        <v>899373.898177799</v>
+        <v>898430.634224446</v>
       </c>
     </row>
     <row r="71">
@@ -9215,7 +9743,7 @@
         <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>951994.890675094</v>
+        <v>952153.881849032</v>
       </c>
     </row>
     <row r="72">
@@ -9223,7 +9751,7 @@
         <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>956193.496371793</v>
+        <v>956801.398424989</v>
       </c>
     </row>
     <row r="73">
@@ -9231,7 +9759,7 @@
         <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>922367.021851397</v>
+        <v>922587.608840479</v>
       </c>
     </row>
     <row r="74">
@@ -9239,7 +9767,7 @@
         <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>882789.213051882</v>
+        <v>883867.63264324</v>
       </c>
     </row>
     <row r="75">
@@ -9247,7 +9775,7 @@
         <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>932703.998539813</v>
+        <v>931950.160163147</v>
       </c>
     </row>
     <row r="76">
@@ -9255,7 +9783,7 @@
         <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>954561.521393069</v>
+        <v>954002.005438432</v>
       </c>
     </row>
     <row r="77">
@@ -9263,7 +9791,7 @@
         <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>1027293.81193504</v>
+        <v>1027566.83696953</v>
       </c>
     </row>
     <row r="78">
@@ -9271,7 +9799,7 @@
         <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>1064553.9252181</v>
+        <v>1065424.99489931</v>
       </c>
     </row>
     <row r="79">
@@ -9279,7 +9807,7 @@
         <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>1104119.83344129</v>
+        <v>1105530.63957693</v>
       </c>
     </row>
     <row r="80">
@@ -9287,7 +9815,7 @@
         <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>1088029.11961751</v>
+        <v>1088549.37417088</v>
       </c>
     </row>
     <row r="81">
@@ -9295,7 +9823,7 @@
         <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>1070477.72295174</v>
+        <v>1067723.86742489</v>
       </c>
     </row>
     <row r="82">
@@ -9303,7 +9831,7 @@
         <v>23</v>
       </c>
       <c r="B82" t="n">
-        <v>1247996.74141951</v>
+        <v>1252332.14537577</v>
       </c>
     </row>
     <row r="83">
@@ -9311,7 +9839,7 @@
         <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>1169209.42149064</v>
+        <v>1170574.94034297</v>
       </c>
     </row>
     <row r="84">
@@ -9319,7 +9847,7 @@
         <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>1182088.53713974</v>
+        <v>1180508.19618333</v>
       </c>
     </row>
     <row r="85">
@@ -9327,7 +9855,7 @@
         <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>1265470.58745219</v>
+        <v>1261340.66386261</v>
       </c>
     </row>
     <row r="86">
@@ -9335,7 +9863,7 @@
         <v>24</v>
       </c>
       <c r="B86" t="n">
-        <v>1386392.12563957</v>
+        <v>1378683.93928066</v>
       </c>
     </row>
     <row r="87">
@@ -9343,7 +9871,7 @@
         <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>1355005.04457213</v>
+        <v>1351204.59864253</v>
       </c>
     </row>
     <row r="88">
@@ -9351,7 +9879,7 @@
         <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>1432800.20173758</v>
+        <v>1433789.28709953</v>
       </c>
     </row>
     <row r="89">
@@ -9359,7 +9887,7 @@
         <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>1400105.3416369</v>
+        <v>1410629.63776472</v>
       </c>
     </row>
     <row r="90">
@@ -9367,7 +9895,7 @@
         <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>1626508.47281018</v>
+        <v>1477116.0055968</v>
       </c>
     </row>
     <row r="91">
@@ -9375,7 +9903,7 @@
         <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>1389323.83020727</v>
+        <v>1441027.16848931</v>
       </c>
     </row>
     <row r="92">
@@ -9383,7 +9911,7 @@
         <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>1447407.28914572</v>
+        <v>1498373.051867</v>
       </c>
     </row>
     <row r="93">
@@ -9391,7 +9919,7 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>1382916.55107744</v>
+        <v>1429561.59176246</v>
       </c>
     </row>
     <row r="94">
@@ -9399,7 +9927,7 @@
         <v>26</v>
       </c>
       <c r="B94" t="n">
-        <v>1560795.10311679</v>
+        <v>1384200.25074301</v>
       </c>
     </row>
     <row r="95">
@@ -9407,7 +9935,7 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>1299607.39975372</v>
+        <v>1364511.98792486</v>
       </c>
     </row>
     <row r="96">
@@ -9415,7 +9943,7 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>1448652.64800014</v>
+        <v>1505338.52151823</v>
       </c>
     </row>
     <row r="97">
@@ -9423,7 +9951,7 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>1390431.84121628</v>
+        <v>1445343.22591388</v>
       </c>
     </row>
     <row r="98">
@@ -9431,7 +9959,7 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>1549107.85369471</v>
+        <v>1402345.93898177</v>
       </c>
     </row>
     <row r="99">
@@ -9439,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>1364696.29081388</v>
+        <v>1390296.39445671</v>
       </c>
     </row>
     <row r="100">
@@ -9447,7 +9975,7 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>1481229.94590446</v>
+        <v>1466091.49027672</v>
       </c>
     </row>
     <row r="101">
@@ -9455,7 +9983,7 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>1444258.90980768</v>
+        <v>1435608.10941541</v>
       </c>
     </row>
     <row r="102">
@@ -9463,7 +9991,7 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>1606719.08927676</v>
+        <v>1415652.28932858</v>
       </c>
     </row>
     <row r="103">
@@ -9471,7 +9999,7 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>1420736.79025351</v>
+        <v>1413906.61356913</v>
       </c>
     </row>
     <row r="104">
@@ -9479,7 +10007,7 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>1539424.95273022</v>
+        <v>1460327.8415124</v>
       </c>
     </row>
     <row r="105">
@@ -9487,7 +10015,7 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>1500517.82504617</v>
+        <v>1449047.25552048</v>
       </c>
     </row>
     <row r="106">
@@ -9495,7 +10023,7 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>1644636.83939836</v>
+        <v>1442397.3849168</v>
       </c>
     </row>
     <row r="107">
@@ -9503,7 +10031,7 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>1483616.25334697</v>
+        <v>1443039.92450611</v>
       </c>
     </row>
     <row r="108">
@@ -9511,7 +10039,7 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>1585899.58816701</v>
+        <v>1468096.87895815</v>
       </c>
     </row>
     <row r="109">
@@ -9519,7 +10047,7 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>1552877.19607123</v>
+        <v>1461760.39174653</v>
       </c>
     </row>
     <row r="110">
@@ -9527,7 +10055,7 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>1685717.39477095</v>
+        <v>1458245.31108402</v>
       </c>
     </row>
     <row r="111">
@@ -9535,7 +10063,7 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>1535455.47186353</v>
+        <v>1459751.63215467</v>
       </c>
     </row>
     <row r="112">
@@ -9543,7 +10071,7 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>1631130.92571127</v>
+        <v>1475392.7508936</v>
       </c>
     </row>
     <row r="113">
@@ -9551,7 +10079,7 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>1599999.29509802</v>
+        <v>1474876.45147858</v>
       </c>
     </row>
     <row r="114">
@@ -9559,7 +10087,7 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>1720123.28294889</v>
+        <v>1476190.40032509</v>
       </c>
     </row>
     <row r="115">
@@ -9567,7 +10095,7 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>1585069.63657207</v>
+        <v>1480074.71295515</v>
       </c>
     </row>
     <row r="116">
@@ -9575,7 +10103,7 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>1670961.65256165</v>
+        <v>1491253.51344218</v>
       </c>
     </row>
     <row r="117">
@@ -9583,7 +10111,135 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>1643120.37290762</v>
+        <v>1493438.51628583</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1496377.81349675</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1500618.38992596</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1508823.48155977</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1512327.60798714</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1516392.89563788</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1521296.89354375</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1528425.87115986</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1533078.14405253</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1538043.50044159</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1543382.08883392</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1549839.34139118</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1554903.28468108</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1560089.4301335</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1565722.09201093</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1572210.44742349</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1578207.47849337</v>
       </c>
     </row>
   </sheetData>
